--- a/詳細設計/画面遷移図.xlsx
+++ b/詳細設計/画面遷移図.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emi07\Desktop\追加課題6\【実習】各種設計書（テンプレ）\詳細設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\account\詳細設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EC9701-C760-4E8D-9B54-CD3CADB098E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCC939E-C943-459D-889C-E7A4E52027A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙 " sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -119,28 +119,7 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>初版作成</t>
-    <rPh sb="0" eb="2">
-      <t>ショハン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>PL</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>Rev 1.00</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>渡辺</t>
-    <rPh sb="0" eb="2">
-      <t>ワタナベ</t>
-    </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -193,20 +172,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ユーザー名</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>株式会社xxxxxx様</t>
-    <rPh sb="10" eb="11">
-      <t>サマ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
@@ -221,6 +186,10 @@
     <rPh sb="2" eb="4">
       <t>カンリ</t>
     </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>D.Iブログ</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -484,9 +453,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -499,12 +468,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
@@ -523,42 +491,35 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="6" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="6" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -574,12 +535,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="6" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="6" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="6" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -588,6 +543,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -642,8 +603,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7429500" y="165100"/>
-          <a:ext cx="1555750" cy="171450"/>
+          <a:off x="7330440" y="160020"/>
+          <a:ext cx="1536700" cy="166370"/>
           <a:chOff x="733" y="95"/>
           <a:chExt cx="180" cy="17"/>
         </a:xfrm>
@@ -2092,51 +2053,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FT43"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.05" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.08984375" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.08984375" style="12" customWidth="1"/>
-    <col min="7" max="29" width="4.08984375" style="1" customWidth="1"/>
-    <col min="30" max="32" width="4.08984375" style="13" customWidth="1"/>
+    <col min="1" max="4" width="4.109375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.109375" style="12" customWidth="1"/>
+    <col min="7" max="32" width="4.109375" style="1" customWidth="1"/>
     <col min="33" max="36" width="4" style="1" customWidth="1"/>
     <col min="37" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:176" s="7" customFormat="1" ht="13" customHeight="1">
-      <c r="A1" s="14"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="19"/>
+    <row r="1" spans="1:176" s="7" customFormat="1" ht="13.05" customHeight="1">
+      <c r="A1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="18"/>
       <c r="AG1" s="5"/>
       <c r="AH1" s="6"/>
       <c r="AI1" s="6"/>
@@ -2282,767 +2244,746 @@
       <c r="FS1" s="6"/>
       <c r="FT1" s="6"/>
     </row>
-    <row r="2" spans="1:176" ht="13" customHeight="1">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="22"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="23"/>
-    </row>
-    <row r="3" spans="1:176" ht="13" customHeight="1">
-      <c r="A3" s="20"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="21"/>
-      <c r="AB3" s="21"/>
-      <c r="AC3" s="21"/>
-      <c r="AD3" s="21"/>
-      <c r="AE3" s="21"/>
-      <c r="AF3" s="23"/>
-    </row>
-    <row r="4" spans="1:176" ht="13" customHeight="1">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
-      <c r="X4" s="21"/>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="21"/>
-      <c r="AA4" s="21"/>
-      <c r="AB4" s="21"/>
-      <c r="AC4" s="21"/>
-      <c r="AD4" s="21"/>
-      <c r="AE4" s="21"/>
-      <c r="AF4" s="23"/>
-    </row>
-    <row r="5" spans="1:176" ht="13" customHeight="1">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
-      <c r="Y5" s="21"/>
-      <c r="Z5" s="21"/>
-      <c r="AA5" s="21"/>
-      <c r="AB5" s="21"/>
-      <c r="AC5" s="21"/>
-      <c r="AD5" s="21"/>
-      <c r="AE5" s="21"/>
-      <c r="AF5" s="23"/>
-    </row>
-    <row r="6" spans="1:176" ht="13" customHeight="1">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="21"/>
-      <c r="AA6" s="21"/>
-      <c r="AB6" s="21"/>
-      <c r="AC6" s="21"/>
-      <c r="AD6" s="21"/>
-      <c r="AE6" s="21"/>
-      <c r="AF6" s="23"/>
-    </row>
-    <row r="7" spans="1:176" ht="13" customHeight="1">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="21"/>
-      <c r="Z7" s="21"/>
-      <c r="AA7" s="21"/>
-      <c r="AB7" s="21"/>
-      <c r="AC7" s="21"/>
-      <c r="AD7" s="21"/>
-      <c r="AE7" s="21"/>
-      <c r="AF7" s="23"/>
-    </row>
-    <row r="8" spans="1:176" ht="13" customHeight="1">
-      <c r="A8" s="20"/>
-      <c r="B8" s="34" t="s">
-        <v>18</v>
+    <row r="2" spans="1:176" ht="13.05" customHeight="1">
+      <c r="A2" s="19"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="20"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="21"/>
+    </row>
+    <row r="3" spans="1:176" ht="13.05" customHeight="1">
+      <c r="A3" s="19"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="21"/>
+    </row>
+    <row r="4" spans="1:176" ht="13.05" customHeight="1">
+      <c r="A4" s="19"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="21"/>
+    </row>
+    <row r="5" spans="1:176" ht="13.05" customHeight="1">
+      <c r="A5" s="19"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="21"/>
+    </row>
+    <row r="6" spans="1:176" ht="13.05" customHeight="1">
+      <c r="A6" s="19"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="21"/>
+    </row>
+    <row r="7" spans="1:176" ht="13.05" customHeight="1">
+      <c r="A7" s="19"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="21"/>
+    </row>
+    <row r="8" spans="1:176" ht="13.05" customHeight="1">
+      <c r="A8" s="19"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+    </row>
+    <row r="9" spans="1:176" ht="13.05" customHeight="1">
+      <c r="A9" s="19"/>
+      <c r="B9" s="32" t="s">
+        <v>15</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="43" t="s">
-        <v>19</v>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="43" t="s">
+        <v>17</v>
       </c>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="21"/>
-      <c r="AA8" s="21"/>
-      <c r="AB8" s="21"/>
-      <c r="AC8" s="21"/>
-      <c r="AD8" s="21"/>
-      <c r="AE8" s="21"/>
-      <c r="AF8" s="23"/>
-    </row>
-    <row r="9" spans="1:176" ht="13" customHeight="1">
-      <c r="A9" s="20"/>
-      <c r="B9" s="37" t="s">
-        <v>20</v>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="21"/>
+    </row>
+    <row r="10" spans="1:176" ht="13.05" customHeight="1">
+      <c r="A10" s="19"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="21"/>
+    </row>
+    <row r="11" spans="1:176" ht="13.05" customHeight="1">
+      <c r="A11" s="19"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="21"/>
+    </row>
+    <row r="12" spans="1:176" ht="13.05" customHeight="1">
+      <c r="A12" s="19"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="21"/>
+    </row>
+    <row r="13" spans="1:176" ht="13.05" customHeight="1">
+      <c r="A13" s="19"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="21"/>
+    </row>
+    <row r="14" spans="1:176" ht="13.05" customHeight="1">
+      <c r="A14" s="19"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="21"/>
+    </row>
+    <row r="15" spans="1:176" ht="13.05" customHeight="1">
+      <c r="A15" s="19"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="21"/>
+    </row>
+    <row r="16" spans="1:176" ht="13.05" customHeight="1">
+      <c r="A16" s="19"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="21"/>
+    </row>
+    <row r="17" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A17" s="19"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="38" t="s">
+        <v>11</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="53"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21"/>
-      <c r="W9" s="21"/>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="21"/>
-      <c r="Z9" s="21"/>
-      <c r="AA9" s="21"/>
-      <c r="AB9" s="21"/>
-      <c r="AC9" s="21"/>
-      <c r="AD9" s="21"/>
-      <c r="AE9" s="21"/>
-      <c r="AF9" s="23"/>
-    </row>
-    <row r="10" spans="1:176" ht="13" customHeight="1">
-      <c r="A10" s="20"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21"/>
-      <c r="AA10" s="21"/>
-      <c r="AB10" s="21"/>
-      <c r="AC10" s="21"/>
-      <c r="AD10" s="21"/>
-      <c r="AE10" s="21"/>
-      <c r="AF10" s="23"/>
-    </row>
-    <row r="11" spans="1:176" ht="13" customHeight="1">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
-      <c r="AA11" s="21"/>
-      <c r="AB11" s="21"/>
-      <c r="AC11" s="21"/>
-      <c r="AD11" s="21"/>
-      <c r="AE11" s="21"/>
-      <c r="AF11" s="23"/>
-    </row>
-    <row r="12" spans="1:176" ht="13" customHeight="1">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="21"/>
-      <c r="AA12" s="21"/>
-      <c r="AB12" s="21"/>
-      <c r="AC12" s="21"/>
-      <c r="AD12" s="21"/>
-      <c r="AE12" s="21"/>
-      <c r="AF12" s="23"/>
-    </row>
-    <row r="13" spans="1:176" ht="13" customHeight="1">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="21"/>
-      <c r="W13" s="21"/>
-      <c r="X13" s="21"/>
-      <c r="Y13" s="21"/>
-      <c r="Z13" s="21"/>
-      <c r="AA13" s="21"/>
-      <c r="AB13" s="21"/>
-      <c r="AC13" s="21"/>
-      <c r="AD13" s="21"/>
-      <c r="AE13" s="21"/>
-      <c r="AF13" s="23"/>
-    </row>
-    <row r="14" spans="1:176" ht="13" customHeight="1">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="21"/>
-      <c r="Y14" s="21"/>
-      <c r="Z14" s="21"/>
-      <c r="AA14" s="21"/>
-      <c r="AB14" s="21"/>
-      <c r="AC14" s="21"/>
-      <c r="AD14" s="21"/>
-      <c r="AE14" s="21"/>
-      <c r="AF14" s="23"/>
-    </row>
-    <row r="15" spans="1:176" ht="13" customHeight="1">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="21"/>
-      <c r="X15" s="21"/>
-      <c r="Y15" s="21"/>
-      <c r="Z15" s="21"/>
-      <c r="AA15" s="21"/>
-      <c r="AB15" s="21"/>
-      <c r="AC15" s="21"/>
-      <c r="AD15" s="21"/>
-      <c r="AE15" s="21"/>
-      <c r="AF15" s="23"/>
-    </row>
-    <row r="16" spans="1:176" ht="13" customHeight="1">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="21"/>
-      <c r="W16" s="21"/>
-      <c r="AA16" s="21"/>
-      <c r="AB16" s="21"/>
-      <c r="AC16" s="21"/>
-      <c r="AD16" s="21"/>
-      <c r="AE16" s="21"/>
-      <c r="AF16" s="23"/>
-    </row>
-    <row r="17" spans="1:32" ht="13" customHeight="1">
-      <c r="A17" s="20"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="47"/>
-      <c r="R17" s="47"/>
-      <c r="S17" s="47"/>
-      <c r="T17" s="47"/>
-      <c r="U17" s="47"/>
-      <c r="V17" s="21"/>
-      <c r="W17" s="21"/>
-      <c r="AA17" s="21"/>
-      <c r="AB17" s="21"/>
-      <c r="AC17" s="21"/>
-      <c r="AD17" s="21"/>
-      <c r="AE17" s="21"/>
-      <c r="AF17" s="23"/>
-    </row>
-    <row r="18" spans="1:32" ht="13" customHeight="1">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="47"/>
-      <c r="R18" s="47"/>
-      <c r="S18" s="47"/>
-      <c r="T18" s="47"/>
-      <c r="U18" s="47"/>
-      <c r="V18" s="21"/>
-      <c r="W18" s="21"/>
-      <c r="AA18" s="21"/>
-      <c r="AB18" s="21"/>
-      <c r="AC18" s="21"/>
-      <c r="AD18" s="21"/>
-      <c r="AE18" s="21"/>
-      <c r="AF18" s="23"/>
-    </row>
-    <row r="19" spans="1:32" ht="13" customHeight="1">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="47"/>
-      <c r="R19" s="47"/>
-      <c r="S19" s="47"/>
-      <c r="T19" s="47"/>
-      <c r="U19" s="47"/>
-      <c r="V19" s="21"/>
-      <c r="W19" s="21"/>
-      <c r="X19" s="21"/>
-      <c r="Y19" s="21"/>
-      <c r="Z19" s="21"/>
-      <c r="AA19" s="21"/>
-      <c r="AB19" s="21"/>
-      <c r="AC19" s="21"/>
-      <c r="AD19" s="21"/>
-      <c r="AE19" s="21"/>
-      <c r="AF19" s="23"/>
-    </row>
-    <row r="20" spans="1:32" ht="13" customHeight="1">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="21"/>
-      <c r="W20" s="21"/>
-      <c r="X20" s="21"/>
-      <c r="Y20" s="21"/>
-      <c r="Z20" s="21"/>
-      <c r="AA20" s="21"/>
-      <c r="AB20" s="21"/>
-      <c r="AC20" s="21"/>
-      <c r="AD20" s="21"/>
-      <c r="AE20" s="21"/>
-      <c r="AF20" s="23"/>
-    </row>
-    <row r="21" spans="1:32" ht="13" customHeight="1">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="21"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="21"/>
-      <c r="W21" s="21"/>
-      <c r="X21" s="21"/>
-      <c r="Y21" s="21"/>
-      <c r="Z21" s="21"/>
-      <c r="AA21" s="21"/>
-      <c r="AB21" s="21"/>
-      <c r="AC21" s="21"/>
-      <c r="AD21" s="21"/>
-      <c r="AE21" s="21"/>
-      <c r="AF21" s="23"/>
-    </row>
-    <row r="22" spans="1:32" ht="13" customHeight="1">
-      <c r="A22" s="20"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="21"/>
-      <c r="V22" s="21"/>
-      <c r="W22" s="21"/>
-      <c r="X22" s="21"/>
-      <c r="Y22" s="21"/>
-      <c r="Z22" s="21"/>
-      <c r="AA22" s="21"/>
-      <c r="AB22" s="21"/>
-      <c r="AC22" s="21"/>
-      <c r="AD22" s="21"/>
-      <c r="AE22" s="21"/>
-      <c r="AF22" s="23"/>
-    </row>
-    <row r="23" spans="1:32" ht="13" customHeight="1">
-      <c r="A23" s="20"/>
-      <c r="B23" s="24" t="s">
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="21"/>
+    </row>
+    <row r="18" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A18" s="19"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="39"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="39"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="21"/>
+    </row>
+    <row r="19" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A19" s="19"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="39"/>
+      <c r="T19" s="39"/>
+      <c r="U19" s="39"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="21"/>
+    </row>
+    <row r="20" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A20" s="19"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="21"/>
+    </row>
+    <row r="21" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A21" s="19"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="21"/>
+    </row>
+    <row r="22" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A22" s="19"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="21"/>
+    </row>
+    <row r="23" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A23" s="19"/>
+      <c r="B23" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="21"/>
-      <c r="U23" s="21"/>
-      <c r="V23" s="21"/>
-      <c r="W23" s="21"/>
-      <c r="X23" s="21"/>
-      <c r="Y23" s="21"/>
-      <c r="Z23" s="21"/>
-      <c r="AA23" s="21"/>
-      <c r="AB23" s="21"/>
-      <c r="AC23" s="21"/>
-      <c r="AD23" s="21"/>
-      <c r="AE23" s="21"/>
-      <c r="AF23" s="23"/>
-    </row>
-    <row r="24" spans="1:32" ht="13" customHeight="1">
-      <c r="A24" s="20"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="21"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="21"/>
-      <c r="V24" s="21"/>
-      <c r="W24" s="21"/>
-      <c r="X24" s="21"/>
-      <c r="Y24" s="21"/>
-      <c r="Z24" s="21"/>
-      <c r="AA24" s="21"/>
-      <c r="AB24" s="21"/>
-      <c r="AC24" s="21"/>
-      <c r="AD24" s="21"/>
-      <c r="AE24" s="21"/>
-      <c r="AF24" s="23"/>
-    </row>
-    <row r="25" spans="1:32" ht="13" customHeight="1">
-      <c r="A25" s="20"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="21"/>
+    </row>
+    <row r="24" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A24" s="19"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="21"/>
+    </row>
+    <row r="25" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A25" s="19"/>
       <c r="B25" s="8" t="s">
         <v>6</v>
       </c>
@@ -3076,32 +3017,26 @@
       <c r="Z25" s="9"/>
       <c r="AA25" s="9"/>
       <c r="AB25" s="10"/>
-      <c r="AC25" s="25" t="s">
-        <v>11</v>
+      <c r="AC25" s="23" t="s">
+        <v>10</v>
       </c>
       <c r="AD25" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AE25" s="21"/>
-      <c r="AF25" s="23"/>
-    </row>
-    <row r="26" spans="1:32" ht="13" customHeight="1">
-      <c r="A26" s="20"/>
-      <c r="B26" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="21"/>
+    </row>
+    <row r="26" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A26" s="19"/>
+      <c r="B26" s="8"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
-      <c r="F26" s="48">
-        <v>38487</v>
-      </c>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="F26" s="40"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="8"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
@@ -3120,17 +3055,13 @@
       <c r="Z26" s="9"/>
       <c r="AA26" s="9"/>
       <c r="AB26" s="10"/>
-      <c r="AC26" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD26" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE26" s="21"/>
-      <c r="AF26" s="23"/>
-    </row>
-    <row r="27" spans="1:32" ht="13" customHeight="1">
-      <c r="A27" s="20"/>
+      <c r="AC26" s="23"/>
+      <c r="AD26" s="10"/>
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="21"/>
+    </row>
+    <row r="27" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A27" s="19"/>
       <c r="B27" s="8"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -3158,13 +3089,13 @@
       <c r="Z27" s="9"/>
       <c r="AA27" s="9"/>
       <c r="AB27" s="10"/>
-      <c r="AC27" s="25"/>
+      <c r="AC27" s="23"/>
       <c r="AD27" s="10"/>
-      <c r="AE27" s="21"/>
-      <c r="AF27" s="23"/>
-    </row>
-    <row r="28" spans="1:32" ht="13" customHeight="1">
-      <c r="A28" s="20"/>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="21"/>
+    </row>
+    <row r="28" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A28" s="19"/>
       <c r="B28" s="8"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -3192,13 +3123,13 @@
       <c r="Z28" s="9"/>
       <c r="AA28" s="9"/>
       <c r="AB28" s="10"/>
-      <c r="AC28" s="25"/>
+      <c r="AC28" s="23"/>
       <c r="AD28" s="10"/>
-      <c r="AE28" s="21"/>
-      <c r="AF28" s="23"/>
-    </row>
-    <row r="29" spans="1:32" ht="13" customHeight="1">
-      <c r="A29" s="20"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="21"/>
+    </row>
+    <row r="29" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A29" s="19"/>
       <c r="B29" s="8"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -3226,13 +3157,13 @@
       <c r="Z29" s="9"/>
       <c r="AA29" s="9"/>
       <c r="AB29" s="10"/>
-      <c r="AC29" s="25"/>
+      <c r="AC29" s="23"/>
       <c r="AD29" s="10"/>
-      <c r="AE29" s="21"/>
-      <c r="AF29" s="23"/>
-    </row>
-    <row r="30" spans="1:32" ht="13" customHeight="1">
-      <c r="A30" s="20"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="21"/>
+    </row>
+    <row r="30" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A30" s="19"/>
       <c r="B30" s="8"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -3260,13 +3191,13 @@
       <c r="Z30" s="9"/>
       <c r="AA30" s="9"/>
       <c r="AB30" s="10"/>
-      <c r="AC30" s="25"/>
+      <c r="AC30" s="23"/>
       <c r="AD30" s="10"/>
-      <c r="AE30" s="21"/>
-      <c r="AF30" s="23"/>
-    </row>
-    <row r="31" spans="1:32" ht="13" customHeight="1">
-      <c r="A31" s="20"/>
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="21"/>
+    </row>
+    <row r="31" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A31" s="19"/>
       <c r="B31" s="8"/>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -3294,13 +3225,13 @@
       <c r="Z31" s="9"/>
       <c r="AA31" s="9"/>
       <c r="AB31" s="10"/>
-      <c r="AC31" s="25"/>
+      <c r="AC31" s="23"/>
       <c r="AD31" s="10"/>
-      <c r="AE31" s="21"/>
-      <c r="AF31" s="23"/>
-    </row>
-    <row r="32" spans="1:32" ht="13" customHeight="1">
-      <c r="A32" s="20"/>
+      <c r="AE31" s="5"/>
+      <c r="AF31" s="21"/>
+    </row>
+    <row r="32" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A32" s="19"/>
       <c r="B32" s="8"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -3328,13 +3259,13 @@
       <c r="Z32" s="9"/>
       <c r="AA32" s="9"/>
       <c r="AB32" s="10"/>
-      <c r="AC32" s="25"/>
+      <c r="AC32" s="23"/>
       <c r="AD32" s="10"/>
-      <c r="AE32" s="21"/>
-      <c r="AF32" s="23"/>
-    </row>
-    <row r="33" spans="1:32" ht="13" customHeight="1">
-      <c r="A33" s="20"/>
+      <c r="AE32" s="5"/>
+      <c r="AF32" s="21"/>
+    </row>
+    <row r="33" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A33" s="19"/>
       <c r="B33" s="8"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -3362,13 +3293,13 @@
       <c r="Z33" s="9"/>
       <c r="AA33" s="9"/>
       <c r="AB33" s="10"/>
-      <c r="AC33" s="25"/>
+      <c r="AC33" s="23"/>
       <c r="AD33" s="10"/>
-      <c r="AE33" s="21"/>
-      <c r="AF33" s="23"/>
-    </row>
-    <row r="34" spans="1:32" ht="13" customHeight="1">
-      <c r="A34" s="20"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="21"/>
+    </row>
+    <row r="34" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A34" s="19"/>
       <c r="B34" s="8"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -3396,13 +3327,13 @@
       <c r="Z34" s="9"/>
       <c r="AA34" s="9"/>
       <c r="AB34" s="10"/>
-      <c r="AC34" s="25"/>
+      <c r="AC34" s="23"/>
       <c r="AD34" s="10"/>
-      <c r="AE34" s="21"/>
-      <c r="AF34" s="23"/>
-    </row>
-    <row r="35" spans="1:32" ht="13" customHeight="1">
-      <c r="A35" s="20"/>
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="21"/>
+    </row>
+    <row r="35" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A35" s="19"/>
       <c r="B35" s="8"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
@@ -3430,13 +3361,13 @@
       <c r="Z35" s="9"/>
       <c r="AA35" s="9"/>
       <c r="AB35" s="10"/>
-      <c r="AC35" s="25"/>
+      <c r="AC35" s="23"/>
       <c r="AD35" s="10"/>
-      <c r="AE35" s="21"/>
-      <c r="AF35" s="23"/>
-    </row>
-    <row r="36" spans="1:32" ht="13" customHeight="1">
-      <c r="A36" s="20"/>
+      <c r="AE35" s="5"/>
+      <c r="AF35" s="21"/>
+    </row>
+    <row r="36" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A36" s="19"/>
       <c r="B36" s="8"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -3464,13 +3395,13 @@
       <c r="Z36" s="9"/>
       <c r="AA36" s="9"/>
       <c r="AB36" s="10"/>
-      <c r="AC36" s="25"/>
+      <c r="AC36" s="23"/>
       <c r="AD36" s="10"/>
-      <c r="AE36" s="21"/>
-      <c r="AF36" s="23"/>
-    </row>
-    <row r="37" spans="1:32" ht="13" customHeight="1">
-      <c r="A37" s="20"/>
+      <c r="AE36" s="5"/>
+      <c r="AF36" s="21"/>
+    </row>
+    <row r="37" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A37" s="19"/>
       <c r="B37" s="8"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -3498,13 +3429,13 @@
       <c r="Z37" s="9"/>
       <c r="AA37" s="9"/>
       <c r="AB37" s="10"/>
-      <c r="AC37" s="25"/>
+      <c r="AC37" s="23"/>
       <c r="AD37" s="10"/>
-      <c r="AE37" s="21"/>
-      <c r="AF37" s="23"/>
-    </row>
-    <row r="38" spans="1:32" ht="13" customHeight="1">
-      <c r="A38" s="20"/>
+      <c r="AE37" s="5"/>
+      <c r="AF37" s="21"/>
+    </row>
+    <row r="38" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A38" s="19"/>
       <c r="B38" s="8"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -3532,13 +3463,13 @@
       <c r="Z38" s="9"/>
       <c r="AA38" s="9"/>
       <c r="AB38" s="10"/>
-      <c r="AC38" s="25"/>
+      <c r="AC38" s="23"/>
       <c r="AD38" s="10"/>
-      <c r="AE38" s="21"/>
-      <c r="AF38" s="23"/>
-    </row>
-    <row r="39" spans="1:32" ht="13" customHeight="1">
-      <c r="A39" s="20"/>
+      <c r="AE38" s="5"/>
+      <c r="AF38" s="21"/>
+    </row>
+    <row r="39" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A39" s="19"/>
       <c r="B39" s="8"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
@@ -3566,13 +3497,13 @@
       <c r="Z39" s="9"/>
       <c r="AA39" s="9"/>
       <c r="AB39" s="10"/>
-      <c r="AC39" s="25"/>
+      <c r="AC39" s="23"/>
       <c r="AD39" s="10"/>
-      <c r="AE39" s="21"/>
-      <c r="AF39" s="23"/>
-    </row>
-    <row r="40" spans="1:32" ht="13" customHeight="1">
-      <c r="A40" s="20"/>
+      <c r="AE39" s="5"/>
+      <c r="AF39" s="21"/>
+    </row>
+    <row r="40" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A40" s="19"/>
       <c r="B40" s="8"/>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
@@ -3600,13 +3531,13 @@
       <c r="Z40" s="9"/>
       <c r="AA40" s="9"/>
       <c r="AB40" s="10"/>
-      <c r="AC40" s="25"/>
+      <c r="AC40" s="23"/>
       <c r="AD40" s="10"/>
-      <c r="AE40" s="21"/>
-      <c r="AF40" s="23"/>
-    </row>
-    <row r="41" spans="1:32" ht="13" customHeight="1">
-      <c r="A41" s="20"/>
+      <c r="AE40" s="5"/>
+      <c r="AF40" s="21"/>
+    </row>
+    <row r="41" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A41" s="19"/>
       <c r="B41" s="8"/>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -3634,13 +3565,13 @@
       <c r="Z41" s="9"/>
       <c r="AA41" s="9"/>
       <c r="AB41" s="10"/>
-      <c r="AC41" s="25"/>
+      <c r="AC41" s="23"/>
       <c r="AD41" s="10"/>
-      <c r="AE41" s="21"/>
-      <c r="AF41" s="23"/>
-    </row>
-    <row r="42" spans="1:32" ht="13" customHeight="1">
-      <c r="A42" s="20"/>
+      <c r="AE41" s="5"/>
+      <c r="AF41" s="21"/>
+    </row>
+    <row r="42" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A42" s="19"/>
       <c r="B42" s="8"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -3668,49 +3599,48 @@
       <c r="Z42" s="9"/>
       <c r="AA42" s="9"/>
       <c r="AB42" s="10"/>
-      <c r="AC42" s="25"/>
+      <c r="AC42" s="23"/>
       <c r="AD42" s="10"/>
-      <c r="AE42" s="21"/>
-      <c r="AF42" s="23"/>
-    </row>
-    <row r="43" spans="1:32" ht="13" customHeight="1">
-      <c r="A43" s="26"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="27"/>
-      <c r="M43" s="27"/>
-      <c r="N43" s="27"/>
-      <c r="O43" s="27"/>
-      <c r="P43" s="28"/>
-      <c r="Q43" s="27"/>
-      <c r="R43" s="27"/>
-      <c r="S43" s="27"/>
-      <c r="T43" s="27"/>
-      <c r="U43" s="27"/>
-      <c r="V43" s="27"/>
-      <c r="W43" s="27"/>
-      <c r="X43" s="27"/>
-      <c r="Y43" s="27"/>
-      <c r="Z43" s="27"/>
-      <c r="AA43" s="27"/>
-      <c r="AB43" s="27"/>
-      <c r="AC43" s="27"/>
-      <c r="AD43" s="27"/>
-      <c r="AE43" s="27"/>
-      <c r="AF43" s="29"/>
+      <c r="AE42" s="5"/>
+      <c r="AF42" s="21"/>
+    </row>
+    <row r="43" spans="1:32" ht="13.05" customHeight="1">
+      <c r="A43" s="24"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="25"/>
+      <c r="O43" s="25"/>
+      <c r="P43" s="26"/>
+      <c r="Q43" s="25"/>
+      <c r="R43" s="25"/>
+      <c r="S43" s="25"/>
+      <c r="T43" s="25"/>
+      <c r="U43" s="25"/>
+      <c r="V43" s="25"/>
+      <c r="W43" s="25"/>
+      <c r="X43" s="25"/>
+      <c r="Y43" s="25"/>
+      <c r="Z43" s="25"/>
+      <c r="AA43" s="25"/>
+      <c r="AB43" s="25"/>
+      <c r="AC43" s="25"/>
+      <c r="AD43" s="25"/>
+      <c r="AE43" s="25"/>
+      <c r="AF43" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="B9:E10"/>
-    <mergeCell ref="F8:Q8"/>
     <mergeCell ref="L17:U19"/>
     <mergeCell ref="F26:I26"/>
     <mergeCell ref="F9:Q10"/>
@@ -3736,46 +3666,45 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.08984375" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.08984375" style="12" customWidth="1"/>
-    <col min="7" max="26" width="4.08984375" style="1" customWidth="1"/>
-    <col min="27" max="29" width="4.08984375" style="13" customWidth="1"/>
+    <col min="1" max="4" width="4.109375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.109375" style="12" customWidth="1"/>
+    <col min="7" max="29" width="4.109375" style="1" customWidth="1"/>
     <col min="30" max="33" width="4" style="1" customWidth="1"/>
     <col min="34" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:173" ht="12.75" customHeight="1">
-      <c r="A1" s="59" t="s">
-        <v>14</v>
+      <c r="A1" s="49" t="s">
+        <v>11</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
-      <c r="W1" s="60"/>
-      <c r="X1" s="60"/>
-      <c r="Y1" s="60"/>
-      <c r="Z1" s="60"/>
-      <c r="AA1" s="60"/>
-      <c r="AB1" s="60"/>
-      <c r="AC1" s="61"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="51"/>
     </row>
     <row r="2" spans="1:173" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -3809,14 +3738,14 @@
         <v>1</v>
       </c>
       <c r="AA2" s="3"/>
-      <c r="AB2" s="57" t="s">
+      <c r="AB2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="AC2" s="58"/>
+      <c r="AC2" s="53"/>
     </row>
     <row r="3" spans="1:173" ht="12.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -3842,45 +3771,45 @@
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
-      <c r="Z3" s="57" t="s">
+      <c r="Z3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="AA3" s="58"/>
-      <c r="AB3" s="57" t="s">
+      <c r="AA3" s="53"/>
+      <c r="AB3" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="58"/>
+      <c r="AC3" s="53"/>
     </row>
     <row r="4" spans="1:173" s="7" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32"/>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="33"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="30"/>
+      <c r="AA4" s="30"/>
+      <c r="AB4" s="30"/>
+      <c r="AC4" s="31"/>
       <c r="AD4" s="5"/>
       <c r="AE4" s="6"/>
       <c r="AF4" s="6"/>
@@ -4027,1094 +3956,1094 @@
       <c r="FQ4" s="6"/>
     </row>
     <row r="5" spans="1:173" ht="12.75" customHeight="1">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
-      <c r="Y5" s="21"/>
-      <c r="Z5" s="21"/>
-      <c r="AA5" s="21"/>
-      <c r="AB5" s="21"/>
-      <c r="AC5" s="23"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="21"/>
     </row>
     <row r="6" spans="1:173" ht="12.75" customHeight="1">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="21"/>
-      <c r="AA6" s="21"/>
-      <c r="AB6" s="21"/>
-      <c r="AC6" s="23"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="21"/>
     </row>
     <row r="7" spans="1:173" ht="12.75" customHeight="1">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="21"/>
-      <c r="Z7" s="21"/>
-      <c r="AA7" s="21"/>
-      <c r="AB7" s="21"/>
-      <c r="AC7" s="23"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="21"/>
     </row>
     <row r="8" spans="1:173" ht="12.75" customHeight="1">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="21"/>
-      <c r="AA8" s="21"/>
-      <c r="AB8" s="21"/>
-      <c r="AC8" s="23"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="21"/>
     </row>
     <row r="9" spans="1:173" ht="12.75" customHeight="1">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="V9" s="21"/>
-      <c r="W9" s="21"/>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="21"/>
-      <c r="Z9" s="21"/>
-      <c r="AA9" s="21"/>
-      <c r="AB9" s="21"/>
-      <c r="AC9" s="23"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="21"/>
     </row>
     <row r="10" spans="1:173" ht="12.75" customHeight="1">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21"/>
-      <c r="X10" s="21"/>
-      <c r="Y10" s="21"/>
-      <c r="Z10" s="21"/>
-      <c r="AA10" s="21"/>
-      <c r="AB10" s="21"/>
-      <c r="AC10" s="23"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="21"/>
     </row>
     <row r="11" spans="1:173" ht="12.75" customHeight="1">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="21"/>
-      <c r="Y11" s="21"/>
-      <c r="Z11" s="21"/>
-      <c r="AA11" s="21"/>
-      <c r="AB11" s="21"/>
-      <c r="AC11" s="23"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="21"/>
     </row>
     <row r="12" spans="1:173" ht="12.75" customHeight="1">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="21"/>
-      <c r="Y12" s="21"/>
-      <c r="Z12" s="21"/>
-      <c r="AA12" s="21"/>
-      <c r="AB12" s="21"/>
-      <c r="AC12" s="23"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="21"/>
     </row>
     <row r="13" spans="1:173" ht="12.75" customHeight="1">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="21"/>
-      <c r="W13" s="21"/>
-      <c r="X13" s="21"/>
-      <c r="Y13" s="21"/>
-      <c r="Z13" s="21"/>
-      <c r="AA13" s="21"/>
-      <c r="AB13" s="21"/>
-      <c r="AC13" s="23"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="21"/>
     </row>
     <row r="14" spans="1:173" ht="12.75" customHeight="1">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="21"/>
-      <c r="Y14" s="21"/>
-      <c r="Z14" s="21"/>
-      <c r="AA14" s="21"/>
-      <c r="AB14" s="21"/>
-      <c r="AC14" s="23"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="21"/>
     </row>
     <row r="15" spans="1:173" ht="12.75" customHeight="1">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="21"/>
-      <c r="X15" s="21"/>
-      <c r="Y15" s="21"/>
-      <c r="Z15" s="21"/>
-      <c r="AA15" s="21"/>
-      <c r="AB15" s="21"/>
-      <c r="AC15" s="23"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="21"/>
     </row>
     <row r="16" spans="1:173" ht="12.75" customHeight="1">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="30" t="s">
-        <v>15</v>
+      <c r="A16" s="19"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="28" t="s">
+        <v>12</v>
       </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="21"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="21"/>
-      <c r="Y16" s="21"/>
-      <c r="Z16" s="21"/>
-      <c r="AA16" s="21"/>
-      <c r="AB16" s="21"/>
-      <c r="AC16" s="23"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="21"/>
     </row>
     <row r="17" spans="1:29" ht="12.75" customHeight="1">
-      <c r="A17" s="20"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="21"/>
-      <c r="W17" s="21"/>
-      <c r="X17" s="21"/>
-      <c r="Y17" s="21"/>
-      <c r="Z17" s="21"/>
-      <c r="AA17" s="21"/>
-      <c r="AB17" s="21"/>
-      <c r="AC17" s="23"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="21"/>
     </row>
     <row r="18" spans="1:29" ht="12.75" customHeight="1">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="21"/>
-      <c r="W18" s="21"/>
-      <c r="X18" s="21"/>
-      <c r="Y18" s="21"/>
-      <c r="Z18" s="21"/>
-      <c r="AA18" s="21"/>
-      <c r="AB18" s="21"/>
-      <c r="AC18" s="23"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="21"/>
     </row>
     <row r="19" spans="1:29" ht="12.75" customHeight="1">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="21"/>
-      <c r="V19" s="21"/>
-      <c r="W19" s="21"/>
-      <c r="X19" s="21"/>
-      <c r="Y19" s="21"/>
-      <c r="Z19" s="21"/>
-      <c r="AA19" s="21"/>
-      <c r="AB19" s="21"/>
-      <c r="AC19" s="23"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="21"/>
     </row>
     <row r="20" spans="1:29" ht="12.75" customHeight="1">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="21"/>
-      <c r="W20" s="21"/>
-      <c r="X20" s="21"/>
-      <c r="Y20" s="21"/>
-      <c r="Z20" s="21"/>
-      <c r="AA20" s="21"/>
-      <c r="AB20" s="21"/>
-      <c r="AC20" s="23"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="21"/>
     </row>
     <row r="21" spans="1:29" ht="12.75" customHeight="1">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="21"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="21"/>
-      <c r="W21" s="21"/>
-      <c r="X21" s="21"/>
-      <c r="Y21" s="21"/>
-      <c r="Z21" s="21"/>
-      <c r="AA21" s="21"/>
-      <c r="AB21" s="21"/>
-      <c r="AC21" s="23"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="21"/>
     </row>
     <row r="22" spans="1:29" ht="12.75" customHeight="1">
-      <c r="A22" s="20"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="V22" s="21"/>
-      <c r="W22" s="21"/>
-      <c r="X22" s="21"/>
-      <c r="Y22" s="21"/>
-      <c r="Z22" s="21"/>
-      <c r="AA22" s="21"/>
-      <c r="AB22" s="21"/>
-      <c r="AC22" s="23"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="21"/>
     </row>
     <row r="23" spans="1:29" ht="12.75" customHeight="1">
-      <c r="A23" s="20"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="30" t="s">
-        <v>15</v>
+      <c r="A23" s="19"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="28" t="s">
+        <v>12</v>
       </c>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="V23" s="21"/>
-      <c r="W23" s="21"/>
-      <c r="X23" s="21"/>
-      <c r="Y23" s="21"/>
-      <c r="Z23" s="21"/>
-      <c r="AA23" s="21"/>
-      <c r="AB23" s="21"/>
-      <c r="AC23" s="23"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="21"/>
     </row>
     <row r="24" spans="1:29" ht="12.75" customHeight="1">
-      <c r="A24" s="20"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="V24" s="21"/>
-      <c r="W24" s="21"/>
-      <c r="X24" s="21"/>
-      <c r="Y24" s="21"/>
-      <c r="Z24" s="21"/>
-      <c r="AA24" s="21"/>
-      <c r="AB24" s="21"/>
-      <c r="AC24" s="23"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="21"/>
     </row>
     <row r="25" spans="1:29" ht="12.75" customHeight="1">
-      <c r="A25" s="20"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="V25" s="21"/>
-      <c r="W25" s="21"/>
-      <c r="X25" s="21"/>
-      <c r="Y25" s="21"/>
-      <c r="Z25" s="21"/>
-      <c r="AA25" s="21"/>
-      <c r="AB25" s="21"/>
-      <c r="AC25" s="23"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="21"/>
     </row>
     <row r="26" spans="1:29" ht="12.75" customHeight="1">
-      <c r="A26" s="20"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="V26" s="21"/>
-      <c r="W26" s="21"/>
-      <c r="X26" s="21"/>
-      <c r="Y26" s="21"/>
-      <c r="Z26" s="21"/>
-      <c r="AA26" s="21"/>
-      <c r="AB26" s="21"/>
-      <c r="AC26" s="23"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="21"/>
     </row>
     <row r="27" spans="1:29" ht="12.75" customHeight="1">
-      <c r="A27" s="20"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="V27" s="21"/>
-      <c r="W27" s="21"/>
-      <c r="X27" s="21"/>
-      <c r="Y27" s="21"/>
-      <c r="Z27" s="21"/>
-      <c r="AA27" s="21"/>
-      <c r="AB27" s="21"/>
-      <c r="AC27" s="23"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="21"/>
     </row>
     <row r="28" spans="1:29" ht="12.75" customHeight="1">
-      <c r="A28" s="20"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="30" t="s">
-        <v>16</v>
+      <c r="A28" s="19"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="28" t="s">
+        <v>13</v>
       </c>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
-      <c r="V28" s="21"/>
-      <c r="W28" s="21"/>
-      <c r="X28" s="21"/>
-      <c r="Y28" s="21"/>
-      <c r="Z28" s="21"/>
-      <c r="AA28" s="21"/>
-      <c r="AB28" s="21"/>
-      <c r="AC28" s="23"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="21"/>
     </row>
     <row r="29" spans="1:29" ht="12.75" customHeight="1">
-      <c r="A29" s="20"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="V29" s="21"/>
-      <c r="W29" s="21"/>
-      <c r="X29" s="21"/>
-      <c r="Y29" s="21"/>
-      <c r="Z29" s="21"/>
-      <c r="AA29" s="21"/>
-      <c r="AB29" s="21"/>
-      <c r="AC29" s="23"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="21"/>
     </row>
     <row r="30" spans="1:29" ht="12.75" customHeight="1">
-      <c r="A30" s="20"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
-      <c r="R30" s="21"/>
-      <c r="S30" s="21"/>
-      <c r="T30" s="21"/>
-      <c r="U30" s="21"/>
-      <c r="V30" s="21"/>
-      <c r="W30" s="21"/>
-      <c r="X30" s="21"/>
-      <c r="Y30" s="21"/>
-      <c r="Z30" s="21"/>
-      <c r="AA30" s="21"/>
-      <c r="AB30" s="21"/>
-      <c r="AC30" s="23"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="21"/>
     </row>
     <row r="31" spans="1:29" ht="12.75" customHeight="1">
-      <c r="A31" s="20"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="21"/>
-      <c r="S31" s="21"/>
-      <c r="T31" s="21"/>
-      <c r="U31" s="21"/>
-      <c r="V31" s="21"/>
-      <c r="W31" s="21"/>
-      <c r="X31" s="21"/>
-      <c r="Y31" s="21"/>
-      <c r="Z31" s="21"/>
-      <c r="AA31" s="21"/>
-      <c r="AB31" s="21"/>
-      <c r="AC31" s="23"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="5"/>
+      <c r="AC31" s="21"/>
     </row>
     <row r="32" spans="1:29" ht="12.75" customHeight="1">
-      <c r="A32" s="20"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
-      <c r="R32" s="21"/>
-      <c r="S32" s="21"/>
-      <c r="T32" s="21"/>
-      <c r="U32" s="21"/>
-      <c r="V32" s="21"/>
-      <c r="W32" s="21"/>
-      <c r="X32" s="21"/>
-      <c r="Y32" s="21"/>
-      <c r="Z32" s="21"/>
-      <c r="AA32" s="21"/>
-      <c r="AB32" s="21"/>
-      <c r="AC32" s="23"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="21"/>
     </row>
     <row r="33" spans="1:29" ht="12.75" customHeight="1">
-      <c r="A33" s="20"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="21"/>
-      <c r="R33" s="21"/>
-      <c r="S33" s="21"/>
-      <c r="T33" s="21"/>
-      <c r="U33" s="21"/>
-      <c r="V33" s="21"/>
-      <c r="W33" s="21"/>
-      <c r="X33" s="21"/>
-      <c r="Y33" s="21"/>
-      <c r="Z33" s="21"/>
-      <c r="AA33" s="21"/>
-      <c r="AB33" s="21"/>
-      <c r="AC33" s="23"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="21"/>
     </row>
     <row r="34" spans="1:29" ht="12.75" customHeight="1">
-      <c r="A34" s="20"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="21"/>
-      <c r="R34" s="21"/>
-      <c r="S34" s="21"/>
-      <c r="T34" s="21"/>
-      <c r="U34" s="21"/>
-      <c r="V34" s="21"/>
-      <c r="W34" s="21"/>
-      <c r="X34" s="21"/>
-      <c r="Y34" s="21"/>
-      <c r="Z34" s="21"/>
-      <c r="AA34" s="21"/>
-      <c r="AB34" s="21"/>
-      <c r="AC34" s="23"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="21"/>
     </row>
     <row r="35" spans="1:29" ht="12.75" customHeight="1">
-      <c r="A35" s="20"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="30" t="s">
-        <v>17</v>
+      <c r="A35" s="19"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="28" t="s">
+        <v>14</v>
       </c>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="21"/>
-      <c r="R35" s="21"/>
-      <c r="S35" s="21"/>
-      <c r="T35" s="21"/>
-      <c r="U35" s="21"/>
-      <c r="V35" s="21"/>
-      <c r="W35" s="21"/>
-      <c r="X35" s="21"/>
-      <c r="Y35" s="21"/>
-      <c r="Z35" s="21"/>
-      <c r="AA35" s="21"/>
-      <c r="AB35" s="21"/>
-      <c r="AC35" s="23"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="5"/>
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="5"/>
+      <c r="AC35" s="21"/>
     </row>
     <row r="36" spans="1:29" ht="12.75" customHeight="1">
-      <c r="A36" s="20"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="21"/>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="21"/>
-      <c r="R36" s="21"/>
-      <c r="S36" s="21"/>
-      <c r="T36" s="21"/>
-      <c r="U36" s="21"/>
-      <c r="V36" s="21"/>
-      <c r="W36" s="21"/>
-      <c r="X36" s="21"/>
-      <c r="Y36" s="21"/>
-      <c r="Z36" s="21"/>
-      <c r="AA36" s="21"/>
-      <c r="AB36" s="21"/>
-      <c r="AC36" s="23"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="5"/>
+      <c r="AA36" s="5"/>
+      <c r="AB36" s="5"/>
+      <c r="AC36" s="21"/>
     </row>
     <row r="37" spans="1:29" ht="12.75" customHeight="1">
-      <c r="A37" s="20"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="21"/>
-      <c r="R37" s="21"/>
-      <c r="S37" s="21"/>
-      <c r="T37" s="21"/>
-      <c r="U37" s="21"/>
-      <c r="V37" s="21"/>
-      <c r="W37" s="21"/>
-      <c r="X37" s="21"/>
-      <c r="Y37" s="21"/>
-      <c r="Z37" s="21"/>
-      <c r="AA37" s="21"/>
-      <c r="AB37" s="21"/>
-      <c r="AC37" s="23"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="5"/>
+      <c r="AA37" s="5"/>
+      <c r="AB37" s="5"/>
+      <c r="AC37" s="21"/>
     </row>
     <row r="38" spans="1:29" ht="12.75" customHeight="1">
-      <c r="A38" s="20"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="21"/>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="21"/>
-      <c r="R38" s="21"/>
-      <c r="S38" s="21"/>
-      <c r="T38" s="21"/>
-      <c r="U38" s="21"/>
-      <c r="V38" s="21"/>
-      <c r="W38" s="21"/>
-      <c r="X38" s="21"/>
-      <c r="Y38" s="21"/>
-      <c r="Z38" s="21"/>
-      <c r="AA38" s="21"/>
-      <c r="AB38" s="21"/>
-      <c r="AC38" s="23"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5"/>
+      <c r="AC38" s="21"/>
     </row>
     <row r="39" spans="1:29" ht="12.75" customHeight="1">
-      <c r="A39" s="20"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="21"/>
-      <c r="O39" s="21"/>
-      <c r="P39" s="21"/>
-      <c r="Q39" s="21"/>
-      <c r="R39" s="21"/>
-      <c r="S39" s="21"/>
-      <c r="T39" s="21"/>
-      <c r="U39" s="21"/>
-      <c r="V39" s="21"/>
-      <c r="W39" s="21"/>
-      <c r="X39" s="21"/>
-      <c r="Y39" s="21"/>
-      <c r="Z39" s="21"/>
-      <c r="AA39" s="21"/>
-      <c r="AB39" s="21"/>
-      <c r="AC39" s="23"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5"/>
+      <c r="AA39" s="5"/>
+      <c r="AB39" s="5"/>
+      <c r="AC39" s="21"/>
     </row>
     <row r="40" spans="1:29" ht="12.75" customHeight="1">
-      <c r="A40" s="20"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="21"/>
-      <c r="N40" s="21"/>
-      <c r="O40" s="21"/>
-      <c r="P40" s="21"/>
-      <c r="Q40" s="21"/>
-      <c r="R40" s="21"/>
-      <c r="S40" s="21"/>
-      <c r="T40" s="21"/>
-      <c r="U40" s="21"/>
-      <c r="V40" s="21"/>
-      <c r="W40" s="21"/>
-      <c r="X40" s="21"/>
-      <c r="Y40" s="21"/>
-      <c r="Z40" s="21"/>
-      <c r="AA40" s="21"/>
-      <c r="AB40" s="21"/>
-      <c r="AC40" s="23"/>
+      <c r="A40" s="19"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="5"/>
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="5"/>
+      <c r="AC40" s="21"/>
     </row>
     <row r="41" spans="1:29" ht="12.75" customHeight="1">
-      <c r="A41" s="20"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="21"/>
-      <c r="O41" s="21"/>
-      <c r="P41" s="21"/>
-      <c r="Q41" s="21"/>
-      <c r="R41" s="21"/>
-      <c r="S41" s="21"/>
-      <c r="T41" s="21"/>
-      <c r="U41" s="21"/>
-      <c r="V41" s="21"/>
-      <c r="W41" s="21"/>
-      <c r="X41" s="21"/>
-      <c r="Y41" s="21"/>
-      <c r="Z41" s="21"/>
-      <c r="AA41" s="21"/>
-      <c r="AB41" s="21"/>
-      <c r="AC41" s="23"/>
+      <c r="A41" s="19"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="5"/>
+      <c r="AC41" s="21"/>
     </row>
     <row r="42" spans="1:29" ht="12.75" customHeight="1">
-      <c r="A42" s="26"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="27"/>
-      <c r="N42" s="27"/>
-      <c r="O42" s="27"/>
-      <c r="P42" s="27"/>
-      <c r="Q42" s="27"/>
-      <c r="R42" s="27"/>
-      <c r="S42" s="27"/>
-      <c r="T42" s="27"/>
-      <c r="U42" s="27"/>
-      <c r="V42" s="27"/>
-      <c r="W42" s="27"/>
-      <c r="X42" s="27"/>
-      <c r="Y42" s="27"/>
-      <c r="Z42" s="27"/>
-      <c r="AA42" s="27"/>
-      <c r="AB42" s="27"/>
-      <c r="AC42" s="29"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="25"/>
+      <c r="O42" s="25"/>
+      <c r="P42" s="25"/>
+      <c r="Q42" s="25"/>
+      <c r="R42" s="25"/>
+      <c r="S42" s="25"/>
+      <c r="T42" s="25"/>
+      <c r="U42" s="25"/>
+      <c r="V42" s="25"/>
+      <c r="W42" s="25"/>
+      <c r="X42" s="25"/>
+      <c r="Y42" s="25"/>
+      <c r="Z42" s="25"/>
+      <c r="AA42" s="25"/>
+      <c r="AB42" s="25"/>
+      <c r="AC42" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/詳細設計/画面遷移図.xlsx
+++ b/詳細設計/画面遷移図.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\account\詳細設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCC939E-C943-459D-889C-E7A4E52027A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41CA520-A7C5-44F5-B547-934F6867D429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙 " sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -44,31 +44,10 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>作成会社</t>
-    <rPh sb="0" eb="2">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カイシャ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>担当者</t>
     <rPh sb="0" eb="3">
       <t>タントウシャ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>岩岬</t>
-    <rPh sb="0" eb="2">
-      <t>イワサキ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>SI</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -133,45 +112,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>次へボタン押下時</t>
-    <rPh sb="0" eb="1">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>トキ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>検索ボタン押下時</t>
-    <rPh sb="0" eb="2">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>トキ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>説明ボタン押下時</t>
-    <rPh sb="0" eb="2">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>トキ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
@@ -179,18 +119,40 @@
     <phoneticPr fontId="13"/>
   </si>
   <si>
-    <t>生徒管理システム</t>
+    <t>D.Iブログ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>田中</t>
     <rPh sb="0" eb="2">
-      <t>セイト</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンリ</t>
+      <t>タナカ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>D.Iブログ</t>
+    <t>ログイン成功</t>
+    <rPh sb="4" eb="6">
+      <t>セイコウ</t>
+    </rPh>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>確認する</t>
+  </si>
+  <si>
+    <t>登録する</t>
+  </si>
+  <si>
+    <t>前に戻る</t>
+  </si>
+  <si>
+    <t>TOPページへ戻る</t>
+  </si>
+  <si>
+    <t>削除する</t>
+  </si>
+  <si>
+    <t>更新する</t>
   </si>
 </sst>
 </file>
@@ -200,7 +162,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -285,6 +247,12 @@
     <font>
       <sz val="6"/>
       <name val="明朝"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -453,7 +421,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -550,6 +518,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -702,16 +671,13 @@
             <a:pPr algn="ctr" rtl="0">
               <a:defRPr sz="1000"/>
             </a:pPr>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="ＭＳ Ｐゴシック"/>
-                <a:ea typeface="ＭＳ Ｐゴシック"/>
-              </a:rPr>
-              <a:t>2005/5/15</a:t>
-            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -725,15 +691,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>108450</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>63750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -749,8 +715,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="285750" y="1765300"/>
-          <a:ext cx="965700" cy="540000"/>
+          <a:off x="277906" y="1792941"/>
+          <a:ext cx="942168" cy="547844"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -820,23 +786,82 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>197100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>63750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>197100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直線矢印コネクタ 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{902C455E-CB63-4AB0-BB46-6EC2D293B601}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="2" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="752912" y="2340785"/>
+          <a:ext cx="0" cy="420344"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>108450</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>63750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="角丸四角形 3">
+        <xdr:cNvPr id="4" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5744773B-6D30-4DA3-9635-B81965DF07C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -844,8 +869,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="285750" y="2717800"/>
-          <a:ext cx="965700" cy="540000"/>
+          <a:off x="277906" y="823408"/>
+          <a:ext cx="1062318" cy="549189"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -896,27 +921,7 @@
               <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>検索条件</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>画面</a:t>
+            <a:t>ログイン画面</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -925,36 +930,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>196850</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>63750</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>134795</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>197100</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>135467</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="直線矢印コネクタ 23">
+        <xdr:cNvPr id="5" name="直線矢印コネクタ 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4941F8DB-6313-41DB-B7A9-A2BDF66B3C67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BC099CB-B582-400E-9C8C-7413C1483549}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
-          <a:stCxn id="18" idx="2"/>
-          <a:endCxn id="28" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="768350" y="3257800"/>
-          <a:ext cx="250" cy="406150"/>
+        <a:xfrm>
+          <a:off x="1340224" y="959548"/>
+          <a:ext cx="883023" cy="672"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -985,23 +988,126 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>57400</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>32160</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14DBEAED-6064-B419-DFD4-F76C29A186D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="769620" y="2468880"/>
+          <a:ext cx="1800000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>32160</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>32160</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>21300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC560713-025B-AE9A-2B9E-C8C4D85E28E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2569620" y="2468880"/>
+          <a:ext cx="0" cy="288000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>21300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>108450</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>100080</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="フローチャート: 判断 27">
+        <xdr:cNvPr id="16" name="角丸四角形 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C80106D4-8B27-4DF0-978E-E316ADC24C42}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9A1A628-7758-430B-9617-7A590B3C4AB5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1009,18 +1115,116 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="311150" y="3663950"/>
-          <a:ext cx="914400" cy="540000"/>
+          <a:off x="281940" y="2756880"/>
+          <a:ext cx="954270" cy="558840"/>
         </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
+        <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="19050" cmpd="sng">
+        <a:ln w="15875" cmpd="thinThick">
           <a:solidFill>
             <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
-          <a:prstDash val="solid"/>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>一般ユーザー向け機能</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>80510</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>246880</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>100080</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="角丸四角形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75DDA4DD-C834-47B7-A786-1292FD7F0F4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3971192" y="1679014"/>
+          <a:ext cx="1000088" cy="536737"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="15875" cmpd="thinThick">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1057,8 +1261,25 @@
               <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>条件分岐</a:t>
+            <a:t>管理者用機能</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1066,83 +1287,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>197100</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>63750</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>80510</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>70620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>197100</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="直線矢印コネクタ 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{902C455E-CB63-4AB0-BB46-6EC2D293B601}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="2" idx="2"/>
-          <a:endCxn id="18" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="768600" y="2305300"/>
-          <a:ext cx="0" cy="412500"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>246880</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>130560</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="正方形/長方形 34">
+        <xdr:cNvPr id="19" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A230869-ED00-434B-86FE-9ABA7ED54D4B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34C4E191-DA9E-4CB8-B706-77D9A15EBF53}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1150,151 +1311,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2139950" y="3689350"/>
-          <a:ext cx="1041400" cy="469900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
-        </a:solidFill>
-        <a:ln w="19050" cmpd="sng">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>後ページ処理</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>104900</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="直線矢印コネクタ 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1FC9ACF-9569-4518-A0F9-0CD32646290E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="28" idx="3"/>
-          <a:endCxn id="35" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1225550" y="3924300"/>
-          <a:ext cx="914400" cy="9650"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>108450</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>51050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="角丸四角形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="285750" y="4610100"/>
-          <a:ext cx="965700" cy="540000"/>
+          <a:off x="2025851" y="3799938"/>
+          <a:ext cx="1000088" cy="705398"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1345,27 +1363,7 @@
               <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>検索一覧</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>画面</a:t>
+            <a:t>アカウント一覧画面</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1374,36 +1372,36 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>196850</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>57400</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>24742</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>100080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>197100</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>24742</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>70620</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="46" name="直線矢印コネクタ 45">
+        <xdr:cNvPr id="20" name="直線矢印コネクタ 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7050A3F3-1BD8-47C2-B9DF-4C56152DA1D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70A5CB86-6510-4EE9-9C72-DE4D09CEC2EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
-          <a:stCxn id="28" idx="2"/>
-          <a:endCxn id="45" idx="0"/>
+          <a:stCxn id="17" idx="2"/>
+          <a:endCxn id="19" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="768350" y="4203950"/>
-          <a:ext cx="250" cy="406150"/>
+          <a:off x="4471236" y="2215751"/>
+          <a:ext cx="0" cy="454634"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1434,23 +1432,132 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>173580</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>139950</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>22725</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直線コネクタ 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E83E3385-9261-410E-A324-176655DCCAD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="737460" y="3535680"/>
+          <a:ext cx="1822725" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>173580</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>182245</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>83570</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直線矢印コネクタ 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA410B81-EB23-4F8A-938B-5C0F9610A60C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:endCxn id="52" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2674733" y="2425625"/>
+          <a:ext cx="8665" cy="257710"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>256040</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>83570</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>108450</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>130560</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="フローチャート: 判断 49">
+        <xdr:cNvPr id="52" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{115A657E-E730-4BD7-83D0-86FEEFFCD67B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C56EC08-CC65-4EA1-961F-D3A7DCF7751D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1458,14 +1565,18 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="311150" y="5492750"/>
-          <a:ext cx="914400" cy="540000"/>
+          <a:off x="2201381" y="2683335"/>
+          <a:ext cx="964034" cy="692449"/>
         </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
+        <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050" cmpd="sng">
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="31750" cmpd="thinThick">
           <a:solidFill>
             <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
@@ -1499,14 +1610,14 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>条件分岐</a:t>
+            <a:t>アカウント登録画面</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1515,36 +1626,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>196850</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>51050</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>170329</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>107997</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>197100</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>173580</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>98612</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="51" name="直線矢印コネクタ 50">
+        <xdr:cNvPr id="66" name="直線矢印コネクタ 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4245C47-194E-4C45-8BAC-3F3034C90282}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D22C2CB7-8C60-45C9-BA8E-995AD54CC133}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
-          <a:stCxn id="45" idx="2"/>
-          <a:endCxn id="50" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="768350" y="5150100"/>
-          <a:ext cx="250" cy="342650"/>
+          <a:off x="2671482" y="3353221"/>
+          <a:ext cx="3251" cy="313344"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1576,22 +1685,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>146050</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>238439</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>78517</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>254500</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>139950</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>189133</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>125506</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="角丸四角形 14">
+        <xdr:cNvPr id="69" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F882A596-1146-4F88-A039-423FD30123C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FF32C9C-F77F-4EDE-B074-74B5F4D07B7C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1599,18 +1708,22 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2146300" y="5492750"/>
-          <a:ext cx="965700" cy="540000"/>
+          <a:off x="2183780" y="3646470"/>
+          <a:ext cx="1062318" cy="692448"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="15875" cmpd="thinThick">
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="31750" cmpd="thinThick">
           <a:solidFill>
             <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
-          <a:prstDash val="sysDot"/>
+          <a:prstDash val="solid"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1640,52 +1753,15 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>検索説明画面</a:t>
+            <a:t>アカウント登録確認画面</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>ポップアップ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>)</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1693,36 +1769,1692 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>28700</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238439</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>146050</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>28700</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>189133</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>46989</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="角丸四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E48516A8-821A-4351-BFEA-E469A147553A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2183780" y="4697506"/>
+          <a:ext cx="1062318" cy="692448"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="31750" cmpd="thinThick">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>アカウント登録完了画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>186768</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>125506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>186768</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="56" name="直線矢印コネクタ 55">
+        <xdr:cNvPr id="71" name="直線矢印コネクタ 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAA9DD21-1C4A-4B81-84C4-E3E91DA3AA69}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E395F53A-CF27-4BDA-9BFB-278AE13A40AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
-          <a:stCxn id="50" idx="3"/>
-          <a:endCxn id="54" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1225550" y="5762750"/>
-          <a:ext cx="920750" cy="0"/>
+          <a:off x="2687921" y="4338918"/>
+          <a:ext cx="0" cy="358588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>102165</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>213872</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="フローチャート: 判断 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B6CD86C-D762-20CA-AF28-1E3A14CFB656}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3714941" y="3567953"/>
+          <a:ext cx="1501237" cy="484094"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>条件検索</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>32160</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>32160</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>74640</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="91" name="直線矢印コネクタ 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDD0B641-8372-4440-8295-03AAAAC0123A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4478654" y="4052047"/>
+          <a:ext cx="0" cy="397369"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19066</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>130560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>24742</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="95" name="直線コネクタ 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7D0600B-B69B-916C-0552-E5FA65DA7F99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="2"/>
+          <a:endCxn id="74" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4465560" y="3375784"/>
+          <a:ext cx="5676" cy="192169"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>32160</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>53886</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="100" name="直線コネクタ 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA335BE6-77CB-4155-AC1F-46EF6287D525}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4478654" y="4158727"/>
+          <a:ext cx="1689161" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>49656</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>94281</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>58115</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>141271</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="103" name="角丸四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{384F7D5C-5DE3-49ED-9862-DE2C661B5D88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3940338" y="4469057"/>
+          <a:ext cx="1120083" cy="369720"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="31750" cmpd="thinThick">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>削除画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>53886</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>141271</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>55857</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>159198</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="104" name="直線矢印コネクタ 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{440E6590-BED1-42AF-B418-0CA5122417C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="103" idx="2"/>
+          <a:endCxn id="105" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4500380" y="4838777"/>
+          <a:ext cx="1971" cy="340656"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>80510</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>159198</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>31204</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>161363</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="角丸四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{868BA269-53DD-42F2-8D54-CBCC5C6C925A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3971192" y="5179433"/>
+          <a:ext cx="1062318" cy="324895"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="31750" cmpd="thinThick">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>削除確認画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>35865</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>126850</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="角丸四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{360DFDE6-DA45-4B43-B71B-DE74ED307E47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3890682" y="5862924"/>
+          <a:ext cx="1238474" cy="286864"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="31750" cmpd="thinThick">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>削除完了画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>55857</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>161363</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>63425</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>35865</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="107" name="直線矢印コネクタ 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21E78B1B-CF55-4EE7-AE35-CB57A4244760}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="105" idx="2"/>
+          <a:endCxn id="106" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4502351" y="5504328"/>
+          <a:ext cx="7568" cy="358596"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>55857</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>63425</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>94281</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="139" name="直線矢印コネクタ 138">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FE7EC8A-22BB-4089-8E55-CA57F0D826F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6169786" y="4158727"/>
+          <a:ext cx="7568" cy="310330"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>49656</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>94281</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>58115</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>141271</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="140" name="角丸四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{520471FA-70EA-4502-9C2A-7F4E75B49891}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3940338" y="4469057"/>
+          <a:ext cx="1120083" cy="369720"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="31750" cmpd="thinThick">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>更新画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>53886</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>141271</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>55857</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>159198</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="141" name="直線矢印コネクタ 140">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A860BB5B-F214-4AAD-82D2-7B5217CD9B75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="140" idx="2"/>
+          <a:endCxn id="142" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4500380" y="4838777"/>
+          <a:ext cx="1971" cy="340656"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>80510</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>159198</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>31204</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>161363</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="142" name="角丸四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C34EDBA-3723-4DB1-84B2-8EE6C6B5FDC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3971192" y="5179433"/>
+          <a:ext cx="1062318" cy="324895"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="31750" cmpd="thinThick">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>更新確認画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>35865</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>126850</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="143" name="角丸四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48DEC1BA-C403-4603-BD8D-356083A69BA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3890682" y="5862924"/>
+          <a:ext cx="1238474" cy="286864"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="31750" cmpd="thinThick">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>更新完了画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>190328</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>161363</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>197896</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>35865</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="144" name="直線矢印コネクタ 143">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04B60C93-5241-4C58-82C9-A55B3EE506E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6304257" y="5504328"/>
+          <a:ext cx="7568" cy="358596"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>213786</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>46989</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>213786</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="149" name="直線コネクタ 148">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B230EE81-95FA-6FFF-DCD1-946491461786}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="70" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2714939" y="5389954"/>
+          <a:ext cx="0" cy="1082564"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>170329</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>242495</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="151" name="直線コネクタ 150">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1CC4E90-9D2E-CA80-4D53-E412C7C36F67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2671482" y="6472518"/>
+          <a:ext cx="5074472" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>63425</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>63426</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="153" name="直線コネクタ 152">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6578F6BD-B49E-8075-C2D0-09D9B1C113D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="143" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6177354" y="6149788"/>
+          <a:ext cx="1" cy="322730"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>63425</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>63425</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="155" name="直線コネクタ 154">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5E71A1E-7DFB-4995-9DE5-A88CF7763AE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="106" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4509919" y="6149788"/>
+          <a:ext cx="0" cy="322730"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>112557</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="157" name="直線コネクタ 156">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FBB6733-F327-DC67-A433-350C69680030}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7781365" y="937310"/>
+          <a:ext cx="0" cy="5535208"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>108450</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>112557</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>112557</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="159" name="直線矢印コネクタ 158">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53119799-2E23-2106-48B5-3F9E100FBDCF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="2" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3165415" y="937310"/>
+          <a:ext cx="4615950" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>130139</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>130139</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="172" name="直線矢印コネクタ 171">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9EC883D-A1B1-4A55-984B-B9D9FFF12FCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2501153" y="4343551"/>
+          <a:ext cx="0" cy="322729"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>215153</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>215153</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="177" name="直線矢印コネクタ 176">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F6421A5-AE25-4700-AA5C-70E34E40EC81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4383741" y="4858871"/>
+          <a:ext cx="0" cy="322729"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>170329</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>170329</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>35865</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="181" name="直線矢印コネクタ 180">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{375C9C7E-D018-44A1-A98C-5C10B802A94C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4338917" y="5504330"/>
+          <a:ext cx="0" cy="358594"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>26992</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>26992</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>35865</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="185" name="直線矢印コネクタ 184">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF059CF6-F094-4008-B560-393B83283989}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6140921" y="5504330"/>
+          <a:ext cx="0" cy="358594"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2053,8 +3785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FT43"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17:U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.05" customHeight="1"/>
@@ -2462,13 +4194,13 @@
     <row r="9" spans="1:176" ht="13.05" customHeight="1">
       <c r="A9" s="19"/>
       <c r="B9" s="32" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
       <c r="E9" s="34"/>
       <c r="F9" s="43" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
@@ -2730,7 +4462,7 @@
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="38" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="M17" s="39"/>
       <c r="N17" s="39"/>
@@ -2917,7 +4649,7 @@
     <row r="23" spans="1:32" ht="13.05" customHeight="1">
       <c r="A23" s="19"/>
       <c r="B23" s="22" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -2985,19 +4717,19 @@
     <row r="25" spans="1:32" ht="13.05" customHeight="1">
       <c r="A25" s="19"/>
       <c r="B25" s="8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="10"/>
       <c r="F25" s="8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="10"/>
       <c r="J25" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
@@ -3018,10 +4750,10 @@
       <c r="AA25" s="9"/>
       <c r="AB25" s="10"/>
       <c r="AC25" s="23" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AD25" s="10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AE25" s="5"/>
       <c r="AF25" s="21"/>
@@ -3658,10 +5390,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:FQ42"/>
+  <dimension ref="A1:FQ44"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:AC1"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="75" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="AA31" sqref="AA31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -3675,7 +5407,7 @@
   <sheetData>
     <row r="1" spans="1:173" ht="12.75" customHeight="1">
       <c r="A1" s="49" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B1" s="50"/>
       <c r="C1" s="50"/>
@@ -3734,18 +5466,16 @@
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
       <c r="Y2" s="4"/>
-      <c r="Z2" s="2" t="s">
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="52" t="s">
-        <v>2</v>
-      </c>
       <c r="AC2" s="53"/>
     </row>
     <row r="3" spans="1:173" ht="12.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -3771,39 +5501,33 @@
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
-      <c r="Z3" s="52" t="s">
-        <v>4</v>
-      </c>
+      <c r="Z3" s="52"/>
       <c r="AA3" s="53"/>
       <c r="AB3" s="52" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AC3" s="53"/>
     </row>
     <row r="4" spans="1:173" s="7" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
       <c r="X4" s="30"/>
       <c r="Y4" s="30"/>
       <c r="Z4" s="30"/>
@@ -3968,16 +5692,13 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
+      <c r="M5" s="12"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
@@ -3998,16 +5719,13 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
+      <c r="M6" s="28"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
@@ -4021,7 +5739,9 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="28"/>
+      <c r="F7" s="28" t="s">
+        <v>12</v>
+      </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -4031,13 +5751,10 @@
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
@@ -4061,8 +5778,10 @@
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
@@ -4074,20 +5793,21 @@
       <c r="A9" s="19"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="28"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+      <c r="K9" s="28"/>
       <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
+      <c r="M9" s="28"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
@@ -4111,8 +5831,10 @@
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
@@ -4122,13 +5844,6 @@
     </row>
     <row r="11" spans="1:173" ht="12.75" customHeight="1">
       <c r="A11" s="19"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -4136,8 +5851,10 @@
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
@@ -4147,12 +5864,6 @@
     </row>
     <row r="12" spans="1:173" ht="12.75" customHeight="1">
       <c r="A12" s="19"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -4160,13 +5871,10 @@
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="54"/>
       <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
@@ -4176,13 +5884,6 @@
     </row>
     <row r="13" spans="1:173" ht="12.75" customHeight="1">
       <c r="A13" s="19"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
@@ -4190,13 +5891,10 @@
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
@@ -4206,13 +5904,6 @@
     </row>
     <row r="14" spans="1:173" ht="12.75" customHeight="1">
       <c r="A14" s="19"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -4220,11 +5911,10 @@
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
@@ -4234,27 +5924,16 @@
     </row>
     <row r="15" spans="1:173" ht="12.75" customHeight="1">
       <c r="A15" s="19"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
       <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
@@ -4264,29 +5943,17 @@
     </row>
     <row r="16" spans="1:173" ht="12.75" customHeight="1">
       <c r="A16" s="19"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="12"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
       <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
@@ -4296,27 +5963,17 @@
     </row>
     <row r="17" spans="1:29" ht="12.75" customHeight="1">
       <c r="A17" s="19"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
+      <c r="M17" s="12"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
@@ -4326,13 +5983,6 @@
     </row>
     <row r="18" spans="1:29" ht="12.75" customHeight="1">
       <c r="A18" s="19"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
@@ -4340,12 +5990,10 @@
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
+      <c r="S18" s="5"/>
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
@@ -4355,13 +6003,6 @@
     </row>
     <row r="19" spans="1:29" ht="12.75" customHeight="1">
       <c r="A19" s="19"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -4369,11 +6010,10 @@
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
@@ -4383,27 +6023,16 @@
     </row>
     <row r="20" spans="1:29" ht="12.75" customHeight="1">
       <c r="A20" s="19"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
       <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
       <c r="X20" s="5"/>
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
@@ -4413,27 +6042,17 @@
     </row>
     <row r="21" spans="1:29" ht="12.75" customHeight="1">
       <c r="A21" s="19"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="12"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
       <c r="X21" s="5"/>
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
@@ -4443,21 +6062,19 @@
     </row>
     <row r="22" spans="1:29" ht="12.75" customHeight="1">
       <c r="A22" s="19"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
+      <c r="K22" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
       <c r="X22" s="5"/>
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
@@ -4467,14 +6084,6 @@
     </row>
     <row r="23" spans="1:29" ht="12.75" customHeight="1">
       <c r="A23" s="19"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
@@ -4482,8 +6091,10 @@
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
       <c r="X23" s="5"/>
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
@@ -4493,12 +6104,6 @@
     </row>
     <row r="24" spans="1:29" ht="12.75" customHeight="1">
       <c r="A24" s="19"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
@@ -4506,8 +6111,10 @@
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
       <c r="X24" s="5"/>
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
@@ -4517,13 +6124,6 @@
     </row>
     <row r="25" spans="1:29" ht="12.75" customHeight="1">
       <c r="A25" s="19"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
@@ -4531,8 +6131,10 @@
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
       <c r="X25" s="5"/>
       <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
@@ -4542,13 +6144,6 @@
     </row>
     <row r="26" spans="1:29" ht="12.75" customHeight="1">
       <c r="A26" s="19"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
@@ -4556,23 +6151,22 @@
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="28"/>
+      <c r="U26" s="5"/>
       <c r="V26" s="5"/>
       <c r="W26" s="5"/>
       <c r="X26" s="5"/>
       <c r="Y26" s="5"/>
-      <c r="Z26" s="5"/>
       <c r="AA26" s="5"/>
       <c r="AB26" s="5"/>
       <c r="AC26" s="21"/>
     </row>
     <row r="27" spans="1:29" ht="12.75" customHeight="1">
       <c r="A27" s="19"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
@@ -4580,75 +6174,69 @@
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
       <c r="V27" s="5"/>
       <c r="W27" s="5"/>
       <c r="X27" s="5"/>
       <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
       <c r="AB27" s="5"/>
       <c r="AC27" s="21"/>
     </row>
     <row r="28" spans="1:29" ht="12.75" customHeight="1">
       <c r="A28" s="19"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="28" t="s">
-        <v>13</v>
+      <c r="H28" s="1" t="s">
+        <v>15</v>
       </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
+      <c r="K28" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L28" s="28"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="U28" s="5"/>
       <c r="V28" s="5"/>
       <c r="W28" s="5"/>
       <c r="X28" s="5"/>
       <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
       <c r="AA28" s="5"/>
       <c r="AB28" s="5"/>
       <c r="AC28" s="21"/>
     </row>
     <row r="29" spans="1:29" ht="12.75" customHeight="1">
       <c r="A29" s="19"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
-      <c r="V29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
       <c r="W29" s="5"/>
       <c r="X29" s="5"/>
       <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
       <c r="AA29" s="5"/>
       <c r="AB29" s="5"/>
       <c r="AC29" s="21"/>
     </row>
     <row r="30" spans="1:29" ht="12.75" customHeight="1">
       <c r="A30" s="19"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
@@ -4656,61 +6244,46 @@
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
       <c r="S30" s="5"/>
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
       <c r="W30" s="5"/>
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
-      <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
       <c r="AB30" s="5"/>
       <c r="AC30" s="21"/>
     </row>
     <row r="31" spans="1:29" ht="12.75" customHeight="1">
       <c r="A31" s="19"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
+      <c r="N31" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
+      <c r="R31" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="S31" s="5"/>
       <c r="T31" s="5"/>
       <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
       <c r="W31" s="5"/>
-      <c r="X31" s="5"/>
+      <c r="X31" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="Y31" s="5"/>
-      <c r="Z31" s="5"/>
       <c r="AA31" s="5"/>
       <c r="AB31" s="5"/>
       <c r="AC31" s="21"/>
     </row>
     <row r="32" spans="1:29" ht="12.75" customHeight="1">
       <c r="A32" s="19"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
@@ -4718,30 +6291,20 @@
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
+      <c r="S32" s="28"/>
+      <c r="T32" s="12"/>
       <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
       <c r="W32" s="5"/>
       <c r="X32" s="5"/>
-      <c r="Y32" s="5"/>
-      <c r="Z32" s="5"/>
+      <c r="Y32" s="28"/>
       <c r="AA32" s="5"/>
       <c r="AB32" s="5"/>
       <c r="AC32" s="21"/>
     </row>
     <row r="33" spans="1:29" ht="12.75" customHeight="1">
       <c r="A33" s="19"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
@@ -4749,263 +6312,158 @@
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
       <c r="R33" s="5"/>
       <c r="S33" s="5"/>
       <c r="T33" s="5"/>
       <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
       <c r="W33" s="5"/>
       <c r="X33" s="5"/>
       <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
       <c r="AA33" s="5"/>
       <c r="AB33" s="5"/>
       <c r="AC33" s="21"/>
     </row>
     <row r="34" spans="1:29" ht="12.75" customHeight="1">
       <c r="A34" s="19"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
       <c r="R34" s="5"/>
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
       <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
       <c r="W34" s="5"/>
       <c r="X34" s="5"/>
       <c r="Y34" s="5"/>
-      <c r="Z34" s="5"/>
       <c r="AA34" s="5"/>
       <c r="AB34" s="5"/>
       <c r="AC34" s="21"/>
     </row>
     <row r="35" spans="1:29" ht="12.75" customHeight="1">
       <c r="A35" s="19"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="28" t="s">
-        <v>14</v>
+      <c r="G35" s="5" t="s">
+        <v>16</v>
       </c>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
       <c r="R35" s="5"/>
       <c r="S35" s="5"/>
       <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="5"/>
       <c r="W35" s="5"/>
       <c r="X35" s="5"/>
       <c r="Y35" s="5"/>
-      <c r="Z35" s="5"/>
       <c r="AA35" s="5"/>
       <c r="AB35" s="5"/>
       <c r="AC35" s="21"/>
     </row>
     <row r="36" spans="1:29" ht="12.75" customHeight="1">
       <c r="A36" s="19"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
       <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
+      <c r="N36" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
+      <c r="R36" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="5"/>
+      <c r="U36" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="W36" s="5"/>
-      <c r="X36" s="5"/>
+      <c r="X36" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="Y36" s="5"/>
-      <c r="Z36" s="5"/>
       <c r="AA36" s="5"/>
       <c r="AB36" s="5"/>
       <c r="AC36" s="21"/>
     </row>
     <row r="37" spans="1:29" ht="12.75" customHeight="1">
       <c r="A37" s="19"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
       <c r="R37" s="5"/>
       <c r="S37" s="5"/>
       <c r="T37" s="5"/>
       <c r="U37" s="5"/>
-      <c r="V37" s="5"/>
       <c r="W37" s="5"/>
       <c r="X37" s="5"/>
       <c r="Y37" s="5"/>
-      <c r="Z37" s="5"/>
       <c r="AA37" s="5"/>
       <c r="AB37" s="5"/>
       <c r="AC37" s="21"/>
     </row>
     <row r="38" spans="1:29" ht="12.75" customHeight="1">
       <c r="A38" s="19"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
       <c r="R38" s="5"/>
       <c r="S38" s="5"/>
       <c r="T38" s="5"/>
       <c r="U38" s="5"/>
-      <c r="V38" s="5"/>
       <c r="W38" s="5"/>
       <c r="X38" s="5"/>
       <c r="Y38" s="5"/>
-      <c r="Z38" s="5"/>
       <c r="AA38" s="5"/>
       <c r="AB38" s="5"/>
       <c r="AC38" s="21"/>
     </row>
     <row r="39" spans="1:29" ht="12.75" customHeight="1">
       <c r="A39" s="19"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
       <c r="Q39" s="5"/>
       <c r="R39" s="5"/>
       <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5"/>
+      <c r="T39" s="28"/>
       <c r="V39" s="5"/>
       <c r="W39" s="5"/>
       <c r="X39" s="5"/>
       <c r="Y39" s="5"/>
-      <c r="Z39" s="5"/>
       <c r="AA39" s="5"/>
       <c r="AB39" s="5"/>
       <c r="AC39" s="21"/>
     </row>
     <row r="40" spans="1:29" ht="12.75" customHeight="1">
       <c r="A40" s="19"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
-      <c r="R40" s="5"/>
+      <c r="R40" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="S40" s="5"/>
       <c r="T40" s="5"/>
       <c r="U40" s="5"/>
-      <c r="V40" s="5"/>
-      <c r="W40" s="5"/>
-      <c r="X40" s="5"/>
-      <c r="Y40" s="5"/>
-      <c r="Z40" s="5"/>
+      <c r="X40" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="AA40" s="5"/>
       <c r="AB40" s="5"/>
       <c r="AC40" s="21"/>
     </row>
     <row r="41" spans="1:29" ht="12.75" customHeight="1">
       <c r="A41" s="19"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
       <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
       <c r="Q41" s="5"/>
       <c r="R41" s="5"/>
       <c r="S41" s="5"/>
       <c r="T41" s="5"/>
       <c r="U41" s="5"/>
-      <c r="V41" s="5"/>
       <c r="W41" s="5"/>
       <c r="X41" s="5"/>
       <c r="Y41" s="5"/>
@@ -5030,20 +6488,34 @@
       <c r="M42" s="25"/>
       <c r="N42" s="25"/>
       <c r="O42" s="25"/>
-      <c r="P42" s="25"/>
-      <c r="Q42" s="25"/>
-      <c r="R42" s="25"/>
-      <c r="S42" s="25"/>
-      <c r="T42" s="25"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
       <c r="U42" s="25"/>
-      <c r="V42" s="25"/>
-      <c r="W42" s="25"/>
-      <c r="X42" s="25"/>
-      <c r="Y42" s="25"/>
-      <c r="Z42" s="25"/>
+      <c r="W42" s="5"/>
+      <c r="X42" s="5"/>
+      <c r="Y42" s="5"/>
+      <c r="Z42" s="5"/>
       <c r="AA42" s="25"/>
       <c r="AB42" s="25"/>
       <c r="AC42" s="27"/>
+    </row>
+    <row r="43" spans="1:29" ht="12.75" customHeight="1">
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="W43" s="5"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="5"/>
+    </row>
+    <row r="44" spans="1:29" ht="12.75" customHeight="1">
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/詳細設計/画面遷移図.xlsx
+++ b/詳細設計/画面遷移図.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\account\詳細設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41CA520-A7C5-44F5-B547-934F6867D429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71EC5837-2930-483B-8583-36FCA895A38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -480,6 +480,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -518,7 +519,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4193,26 +4193,26 @@
     </row>
     <row r="9" spans="1:176" ht="13.05" customHeight="1">
       <c r="A9" s="19"/>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="43" t="s">
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="46"/>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
@@ -4231,22 +4231,22 @@
     </row>
     <row r="10" spans="1:176" ht="13.05" customHeight="1">
       <c r="A10" s="19"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="48"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="49"/>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
@@ -4461,18 +4461,18 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="38" t="s">
+      <c r="L17" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="39"/>
-      <c r="S17" s="39"/>
-      <c r="T17" s="39"/>
-      <c r="U17" s="39"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
       <c r="V17" s="5"/>
       <c r="W17" s="5"/>
       <c r="AA17" s="5"/>
@@ -4494,16 +4494,16 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="39"/>
-      <c r="S18" s="39"/>
-      <c r="T18" s="39"/>
-      <c r="U18" s="39"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="40"/>
+      <c r="U18" s="40"/>
       <c r="V18" s="5"/>
       <c r="W18" s="5"/>
       <c r="AA18" s="5"/>
@@ -4525,16 +4525,16 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="39"/>
-      <c r="S19" s="39"/>
-      <c r="T19" s="39"/>
-      <c r="U19" s="39"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="40"/>
+      <c r="T19" s="40"/>
+      <c r="U19" s="40"/>
       <c r="V19" s="5"/>
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
@@ -4764,10 +4764,10 @@
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="42"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="43"/>
       <c r="J26" s="8"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
@@ -5392,8 +5392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:FQ44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="75" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="AA31" sqref="AA31"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="85" zoomScaleNormal="75" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="Y49" sqref="Y49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -5406,37 +5406,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:173" ht="12.75" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="51"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="52"/>
     </row>
     <row r="2" spans="1:173" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -5468,10 +5468,10 @@
       <c r="Y2" s="4"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="3"/>
-      <c r="AB2" s="52" t="s">
+      <c r="AB2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="53"/>
+      <c r="AC2" s="54"/>
     </row>
     <row r="3" spans="1:173" ht="12.75" customHeight="1">
       <c r="A3" s="2" t="s">
@@ -5501,12 +5501,12 @@
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
-      <c r="Z3" s="52"/>
-      <c r="AA3" s="53"/>
-      <c r="AB3" s="52" t="s">
+      <c r="Z3" s="53"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="AC3" s="53"/>
+      <c r="AC3" s="54"/>
     </row>
     <row r="4" spans="1:173" s="7" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="29"/>
@@ -5871,9 +5871,9 @@
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="54"/>
-      <c r="R12" s="54"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="32"/>
       <c r="S12" s="5"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
@@ -6488,15 +6488,17 @@
       <c r="M42" s="25"/>
       <c r="N42" s="25"/>
       <c r="O42" s="25"/>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
+      <c r="P42" s="25"/>
+      <c r="Q42" s="25"/>
+      <c r="R42" s="25"/>
+      <c r="S42" s="25"/>
+      <c r="T42" s="25"/>
       <c r="U42" s="25"/>
-      <c r="W42" s="5"/>
-      <c r="X42" s="5"/>
-      <c r="Y42" s="5"/>
-      <c r="Z42" s="5"/>
+      <c r="V42" s="25"/>
+      <c r="W42" s="25"/>
+      <c r="X42" s="25"/>
+      <c r="Y42" s="25"/>
+      <c r="Z42" s="25"/>
       <c r="AA42" s="25"/>
       <c r="AB42" s="25"/>
       <c r="AC42" s="27"/>

--- a/詳細設計/画面遷移図.xlsx
+++ b/詳細設計/画面遷移図.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\account\詳細設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71EC5837-2930-483B-8583-36FCA895A38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AECDE1-9E8C-4BDE-B8F0-D05F4923ECDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙 " sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -98,10 +98,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>PL</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>画面遷移図</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
@@ -153,6 +149,20 @@
   </si>
   <si>
     <t>更新する</t>
+  </si>
+  <si>
+    <t>Rev 1.00</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>初版作成</t>
+    <rPh sb="0" eb="2">
+      <t>ショハン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -271,7 +281,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -369,21 +379,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -421,7 +416,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -465,9 +460,8 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -484,9 +478,9 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -501,9 +495,9 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="6" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="6" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="6" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="6" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="6" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="6" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -671,6 +665,16 @@
             <a:pPr algn="ctr" rtl="0">
               <a:defRPr sz="1000"/>
             </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>2024/9/28</a:t>
+            </a:r>
             <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
@@ -3785,8 +3789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FT43"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17:U19"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A17" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.05" customHeight="1"/>
@@ -4193,26 +4197,26 @@
     </row>
     <row r="9" spans="1:176" ht="13.05" customHeight="1">
       <c r="A9" s="19"/>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="46"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="45"/>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
@@ -4231,22 +4235,22 @@
     </row>
     <row r="10" spans="1:176" ht="13.05" customHeight="1">
       <c r="A10" s="19"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="49"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="48"/>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
@@ -4461,18 +4465,18 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="39" t="s">
-        <v>8</v>
+      <c r="L17" s="38" t="s">
+        <v>7</v>
       </c>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="40"/>
-      <c r="U17" s="40"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="39"/>
       <c r="V17" s="5"/>
       <c r="W17" s="5"/>
       <c r="AA17" s="5"/>
@@ -4494,16 +4498,16 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="40"/>
-      <c r="T18" s="40"/>
-      <c r="U18" s="40"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="39"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="39"/>
       <c r="V18" s="5"/>
       <c r="W18" s="5"/>
       <c r="AA18" s="5"/>
@@ -4525,16 +4529,16 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="40"/>
-      <c r="S19" s="40"/>
-      <c r="T19" s="40"/>
-      <c r="U19" s="40"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="39"/>
+      <c r="T19" s="39"/>
+      <c r="U19" s="39"/>
       <c r="V19" s="5"/>
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
@@ -4749,26 +4753,29 @@
       <c r="Z25" s="9"/>
       <c r="AA25" s="9"/>
       <c r="AB25" s="10"/>
-      <c r="AC25" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD25" s="10" t="s">
+      <c r="AC25" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="AE25" s="5"/>
-      <c r="AF25" s="21"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="21"/>
     </row>
     <row r="26" spans="1:32" ht="13.05" customHeight="1">
       <c r="A26" s="19"/>
-      <c r="B26" s="8"/>
+      <c r="B26" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="8"/>
+      <c r="F26" s="40">
+        <v>45563</v>
+      </c>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
@@ -4787,10 +4794,11 @@
       <c r="Z26" s="9"/>
       <c r="AA26" s="9"/>
       <c r="AB26" s="10"/>
-      <c r="AC26" s="23"/>
-      <c r="AD26" s="10"/>
-      <c r="AE26" s="5"/>
-      <c r="AF26" s="21"/>
+      <c r="AC26" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD26" s="5"/>
+      <c r="AE26" s="21"/>
     </row>
     <row r="27" spans="1:32" ht="13.05" customHeight="1">
       <c r="A27" s="19"/>
@@ -4821,10 +4829,9 @@
       <c r="Z27" s="9"/>
       <c r="AA27" s="9"/>
       <c r="AB27" s="10"/>
-      <c r="AC27" s="23"/>
-      <c r="AD27" s="10"/>
-      <c r="AE27" s="5"/>
-      <c r="AF27" s="21"/>
+      <c r="AC27" s="10"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="21"/>
     </row>
     <row r="28" spans="1:32" ht="13.05" customHeight="1">
       <c r="A28" s="19"/>
@@ -4855,10 +4862,9 @@
       <c r="Z28" s="9"/>
       <c r="AA28" s="9"/>
       <c r="AB28" s="10"/>
-      <c r="AC28" s="23"/>
-      <c r="AD28" s="10"/>
-      <c r="AE28" s="5"/>
-      <c r="AF28" s="21"/>
+      <c r="AC28" s="10"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="21"/>
     </row>
     <row r="29" spans="1:32" ht="13.05" customHeight="1">
       <c r="A29" s="19"/>
@@ -4889,10 +4895,9 @@
       <c r="Z29" s="9"/>
       <c r="AA29" s="9"/>
       <c r="AB29" s="10"/>
-      <c r="AC29" s="23"/>
-      <c r="AD29" s="10"/>
-      <c r="AE29" s="5"/>
-      <c r="AF29" s="21"/>
+      <c r="AC29" s="10"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="21"/>
     </row>
     <row r="30" spans="1:32" ht="13.05" customHeight="1">
       <c r="A30" s="19"/>
@@ -4923,10 +4928,9 @@
       <c r="Z30" s="9"/>
       <c r="AA30" s="9"/>
       <c r="AB30" s="10"/>
-      <c r="AC30" s="23"/>
-      <c r="AD30" s="10"/>
-      <c r="AE30" s="5"/>
-      <c r="AF30" s="21"/>
+      <c r="AC30" s="10"/>
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="21"/>
     </row>
     <row r="31" spans="1:32" ht="13.05" customHeight="1">
       <c r="A31" s="19"/>
@@ -4957,10 +4961,9 @@
       <c r="Z31" s="9"/>
       <c r="AA31" s="9"/>
       <c r="AB31" s="10"/>
-      <c r="AC31" s="23"/>
-      <c r="AD31" s="10"/>
-      <c r="AE31" s="5"/>
-      <c r="AF31" s="21"/>
+      <c r="AC31" s="10"/>
+      <c r="AD31" s="5"/>
+      <c r="AE31" s="21"/>
     </row>
     <row r="32" spans="1:32" ht="13.05" customHeight="1">
       <c r="A32" s="19"/>
@@ -4991,10 +4994,9 @@
       <c r="Z32" s="9"/>
       <c r="AA32" s="9"/>
       <c r="AB32" s="10"/>
-      <c r="AC32" s="23"/>
-      <c r="AD32" s="10"/>
-      <c r="AE32" s="5"/>
-      <c r="AF32" s="21"/>
+      <c r="AC32" s="10"/>
+      <c r="AD32" s="5"/>
+      <c r="AE32" s="21"/>
     </row>
     <row r="33" spans="1:32" ht="13.05" customHeight="1">
       <c r="A33" s="19"/>
@@ -5025,10 +5027,9 @@
       <c r="Z33" s="9"/>
       <c r="AA33" s="9"/>
       <c r="AB33" s="10"/>
-      <c r="AC33" s="23"/>
-      <c r="AD33" s="10"/>
-      <c r="AE33" s="5"/>
-      <c r="AF33" s="21"/>
+      <c r="AC33" s="10"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="21"/>
     </row>
     <row r="34" spans="1:32" ht="13.05" customHeight="1">
       <c r="A34" s="19"/>
@@ -5059,10 +5060,9 @@
       <c r="Z34" s="9"/>
       <c r="AA34" s="9"/>
       <c r="AB34" s="10"/>
-      <c r="AC34" s="23"/>
-      <c r="AD34" s="10"/>
-      <c r="AE34" s="5"/>
-      <c r="AF34" s="21"/>
+      <c r="AC34" s="10"/>
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="21"/>
     </row>
     <row r="35" spans="1:32" ht="13.05" customHeight="1">
       <c r="A35" s="19"/>
@@ -5093,10 +5093,9 @@
       <c r="Z35" s="9"/>
       <c r="AA35" s="9"/>
       <c r="AB35" s="10"/>
-      <c r="AC35" s="23"/>
-      <c r="AD35" s="10"/>
-      <c r="AE35" s="5"/>
-      <c r="AF35" s="21"/>
+      <c r="AC35" s="10"/>
+      <c r="AD35" s="5"/>
+      <c r="AE35" s="21"/>
     </row>
     <row r="36" spans="1:32" ht="13.05" customHeight="1">
       <c r="A36" s="19"/>
@@ -5127,10 +5126,9 @@
       <c r="Z36" s="9"/>
       <c r="AA36" s="9"/>
       <c r="AB36" s="10"/>
-      <c r="AC36" s="23"/>
-      <c r="AD36" s="10"/>
-      <c r="AE36" s="5"/>
-      <c r="AF36" s="21"/>
+      <c r="AC36" s="10"/>
+      <c r="AD36" s="5"/>
+      <c r="AE36" s="21"/>
     </row>
     <row r="37" spans="1:32" ht="13.05" customHeight="1">
       <c r="A37" s="19"/>
@@ -5161,10 +5159,9 @@
       <c r="Z37" s="9"/>
       <c r="AA37" s="9"/>
       <c r="AB37" s="10"/>
-      <c r="AC37" s="23"/>
-      <c r="AD37" s="10"/>
-      <c r="AE37" s="5"/>
-      <c r="AF37" s="21"/>
+      <c r="AC37" s="10"/>
+      <c r="AD37" s="5"/>
+      <c r="AE37" s="21"/>
     </row>
     <row r="38" spans="1:32" ht="13.05" customHeight="1">
       <c r="A38" s="19"/>
@@ -5195,10 +5192,9 @@
       <c r="Z38" s="9"/>
       <c r="AA38" s="9"/>
       <c r="AB38" s="10"/>
-      <c r="AC38" s="23"/>
-      <c r="AD38" s="10"/>
-      <c r="AE38" s="5"/>
-      <c r="AF38" s="21"/>
+      <c r="AC38" s="10"/>
+      <c r="AD38" s="5"/>
+      <c r="AE38" s="21"/>
     </row>
     <row r="39" spans="1:32" ht="13.05" customHeight="1">
       <c r="A39" s="19"/>
@@ -5229,10 +5225,9 @@
       <c r="Z39" s="9"/>
       <c r="AA39" s="9"/>
       <c r="AB39" s="10"/>
-      <c r="AC39" s="23"/>
-      <c r="AD39" s="10"/>
-      <c r="AE39" s="5"/>
-      <c r="AF39" s="21"/>
+      <c r="AC39" s="10"/>
+      <c r="AD39" s="5"/>
+      <c r="AE39" s="21"/>
     </row>
     <row r="40" spans="1:32" ht="13.05" customHeight="1">
       <c r="A40" s="19"/>
@@ -5263,10 +5258,9 @@
       <c r="Z40" s="9"/>
       <c r="AA40" s="9"/>
       <c r="AB40" s="10"/>
-      <c r="AC40" s="23"/>
-      <c r="AD40" s="10"/>
-      <c r="AE40" s="5"/>
-      <c r="AF40" s="21"/>
+      <c r="AC40" s="10"/>
+      <c r="AD40" s="5"/>
+      <c r="AE40" s="21"/>
     </row>
     <row r="41" spans="1:32" ht="13.05" customHeight="1">
       <c r="A41" s="19"/>
@@ -5297,10 +5291,9 @@
       <c r="Z41" s="9"/>
       <c r="AA41" s="9"/>
       <c r="AB41" s="10"/>
-      <c r="AC41" s="23"/>
-      <c r="AD41" s="10"/>
-      <c r="AE41" s="5"/>
-      <c r="AF41" s="21"/>
+      <c r="AC41" s="10"/>
+      <c r="AD41" s="5"/>
+      <c r="AE41" s="21"/>
     </row>
     <row r="42" spans="1:32" ht="13.05" customHeight="1">
       <c r="A42" s="19"/>
@@ -5331,44 +5324,43 @@
       <c r="Z42" s="9"/>
       <c r="AA42" s="9"/>
       <c r="AB42" s="10"/>
-      <c r="AC42" s="23"/>
-      <c r="AD42" s="10"/>
-      <c r="AE42" s="5"/>
-      <c r="AF42" s="21"/>
+      <c r="AC42" s="10"/>
+      <c r="AD42" s="5"/>
+      <c r="AE42" s="21"/>
     </row>
     <row r="43" spans="1:32" ht="13.05" customHeight="1">
-      <c r="A43" s="24"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="25"/>
-      <c r="M43" s="25"/>
-      <c r="N43" s="25"/>
-      <c r="O43" s="25"/>
-      <c r="P43" s="26"/>
-      <c r="Q43" s="25"/>
-      <c r="R43" s="25"/>
-      <c r="S43" s="25"/>
-      <c r="T43" s="25"/>
-      <c r="U43" s="25"/>
-      <c r="V43" s="25"/>
-      <c r="W43" s="25"/>
-      <c r="X43" s="25"/>
-      <c r="Y43" s="25"/>
-      <c r="Z43" s="25"/>
-      <c r="AA43" s="25"/>
-      <c r="AB43" s="25"/>
-      <c r="AC43" s="25"/>
-      <c r="AD43" s="25"/>
-      <c r="AE43" s="25"/>
-      <c r="AF43" s="27"/>
+      <c r="A43" s="23"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="24"/>
+      <c r="O43" s="24"/>
+      <c r="P43" s="25"/>
+      <c r="Q43" s="24"/>
+      <c r="R43" s="24"/>
+      <c r="S43" s="24"/>
+      <c r="T43" s="24"/>
+      <c r="U43" s="24"/>
+      <c r="V43" s="24"/>
+      <c r="W43" s="24"/>
+      <c r="X43" s="24"/>
+      <c r="Y43" s="24"/>
+      <c r="Z43" s="24"/>
+      <c r="AA43" s="24"/>
+      <c r="AB43" s="24"/>
+      <c r="AC43" s="24"/>
+      <c r="AD43" s="24"/>
+      <c r="AE43" s="24"/>
+      <c r="AF43" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5392,7 +5384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:FQ44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="85" zoomScaleNormal="75" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="75" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="Y49" sqref="Y49"/>
     </sheetView>
   </sheetViews>
@@ -5406,37 +5398,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:173" ht="12.75" customHeight="1">
-      <c r="A1" s="50" t="s">
-        <v>8</v>
+      <c r="A1" s="49" t="s">
+        <v>7</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="52"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="51"/>
     </row>
     <row r="2" spans="1:173" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -5468,14 +5460,14 @@
       <c r="Y2" s="4"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="3"/>
-      <c r="AB2" s="53" t="s">
+      <c r="AB2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="54"/>
+      <c r="AC2" s="53"/>
     </row>
     <row r="3" spans="1:173" ht="12.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -5501,20 +5493,20 @@
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
-      <c r="Z3" s="53"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="53" t="s">
-        <v>11</v>
+      <c r="Z3" s="52"/>
+      <c r="AA3" s="53"/>
+      <c r="AB3" s="52" t="s">
+        <v>10</v>
       </c>
-      <c r="AC3" s="54"/>
+      <c r="AC3" s="53"/>
     </row>
     <row r="4" spans="1:173" s="7" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="29"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="1"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="28"/>
+      <c r="F4" s="27"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="1"/>
@@ -5528,12 +5520,12 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30"/>
-      <c r="Z4" s="30"/>
-      <c r="AA4" s="30"/>
-      <c r="AB4" s="30"/>
-      <c r="AC4" s="31"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="30"/>
       <c r="AD4" s="5"/>
       <c r="AE4" s="6"/>
       <c r="AF4" s="6"/>
@@ -5685,7 +5677,7 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="28"/>
+      <c r="F5" s="27"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -5712,14 +5704,14 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="28"/>
+      <c r="F6" s="27"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="28"/>
+      <c r="M6" s="27"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -5739,8 +5731,8 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="28" t="s">
-        <v>12</v>
+      <c r="F7" s="27" t="s">
+        <v>11</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -5768,7 +5760,7 @@
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="28"/>
+      <c r="F8" s="27"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -5794,14 +5786,14 @@
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="28"/>
+      <c r="F9" s="27"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="28"/>
+      <c r="K9" s="27"/>
       <c r="L9" s="5"/>
-      <c r="M9" s="28"/>
+      <c r="M9" s="27"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
@@ -5821,7 +5813,7 @@
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="28"/>
+      <c r="F10" s="27"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -5871,9 +5863,9 @@
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="32"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
       <c r="S12" s="5"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
@@ -5946,7 +5938,7 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="28"/>
+      <c r="L16" s="27"/>
       <c r="M16" s="12"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
@@ -6044,7 +6036,7 @@
       <c r="A21" s="19"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
-      <c r="K21" s="28"/>
+      <c r="K21" s="27"/>
       <c r="L21" s="12"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
@@ -6065,7 +6057,7 @@
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
@@ -6153,9 +6145,9 @@
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
-      <c r="R26" s="28"/>
+      <c r="R26" s="27"/>
       <c r="S26" s="5"/>
-      <c r="T26" s="28"/>
+      <c r="T26" s="27"/>
       <c r="U26" s="5"/>
       <c r="V26" s="5"/>
       <c r="W26" s="5"/>
@@ -6191,14 +6183,14 @@
     <row r="28" spans="1:29" ht="12.75" customHeight="1">
       <c r="A28" s="19"/>
       <c r="H28" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
-      <c r="L28" s="28"/>
+      <c r="L28" s="27"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
@@ -6264,18 +6256,18 @@
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q31" s="5"/>
       <c r="R31" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S31" s="5"/>
       <c r="T31" s="5"/>
       <c r="U31" s="5"/>
       <c r="W31" s="5"/>
       <c r="X31" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y31" s="5"/>
       <c r="AA31" s="5"/>
@@ -6293,12 +6285,12 @@
       <c r="O32" s="5"/>
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
-      <c r="S32" s="28"/>
+      <c r="S32" s="27"/>
       <c r="T32" s="12"/>
       <c r="U32" s="5"/>
       <c r="W32" s="5"/>
       <c r="X32" s="5"/>
-      <c r="Y32" s="28"/>
+      <c r="Y32" s="27"/>
       <c r="AA32" s="5"/>
       <c r="AB32" s="5"/>
       <c r="AC32" s="21"/>
@@ -6347,7 +6339,7 @@
     <row r="35" spans="1:29" ht="12.75" customHeight="1">
       <c r="A35" s="19"/>
       <c r="G35" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q35" s="5"/>
       <c r="R35" s="5"/>
@@ -6364,20 +6356,20 @@
       <c r="A36" s="19"/>
       <c r="M36" s="5"/>
       <c r="N36" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O36" s="5"/>
       <c r="Q36" s="5"/>
       <c r="R36" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S36" s="5"/>
       <c r="U36" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W36" s="5"/>
       <c r="X36" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y36" s="5"/>
       <c r="AA36" s="5"/>
@@ -6426,7 +6418,7 @@
       <c r="Q39" s="5"/>
       <c r="R39" s="5"/>
       <c r="S39" s="5"/>
-      <c r="T39" s="28"/>
+      <c r="T39" s="27"/>
       <c r="V39" s="5"/>
       <c r="W39" s="5"/>
       <c r="X39" s="5"/>
@@ -6442,13 +6434,13 @@
       <c r="O40" s="5"/>
       <c r="Q40" s="5"/>
       <c r="R40" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S40" s="5"/>
       <c r="T40" s="5"/>
       <c r="U40" s="5"/>
       <c r="X40" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AA40" s="5"/>
       <c r="AB40" s="5"/>
@@ -6473,35 +6465,35 @@
       <c r="AC41" s="21"/>
     </row>
     <row r="42" spans="1:29" ht="12.75" customHeight="1">
-      <c r="A42" s="24"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="25"/>
-      <c r="M42" s="25"/>
-      <c r="N42" s="25"/>
-      <c r="O42" s="25"/>
-      <c r="P42" s="25"/>
-      <c r="Q42" s="25"/>
-      <c r="R42" s="25"/>
-      <c r="S42" s="25"/>
-      <c r="T42" s="25"/>
-      <c r="U42" s="25"/>
-      <c r="V42" s="25"/>
-      <c r="W42" s="25"/>
-      <c r="X42" s="25"/>
-      <c r="Y42" s="25"/>
-      <c r="Z42" s="25"/>
-      <c r="AA42" s="25"/>
-      <c r="AB42" s="25"/>
-      <c r="AC42" s="27"/>
+      <c r="A42" s="23"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="24"/>
+      <c r="O42" s="24"/>
+      <c r="P42" s="24"/>
+      <c r="Q42" s="24"/>
+      <c r="R42" s="24"/>
+      <c r="S42" s="24"/>
+      <c r="T42" s="24"/>
+      <c r="U42" s="24"/>
+      <c r="V42" s="24"/>
+      <c r="W42" s="24"/>
+      <c r="X42" s="24"/>
+      <c r="Y42" s="24"/>
+      <c r="Z42" s="24"/>
+      <c r="AA42" s="24"/>
+      <c r="AB42" s="24"/>
+      <c r="AC42" s="26"/>
     </row>
     <row r="43" spans="1:29" ht="12.75" customHeight="1">
       <c r="Q43" s="5"/>
